--- a/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
@@ -480,16 +480,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.85410783395471</v>
+        <v>-1.85411110514352</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0567445416234266</v>
+        <v>0.0567441932465798</v>
       </c>
       <c r="G2" t="n">
-        <v>-32.6746464225425</v>
+        <v>-32.6749046741496</v>
       </c>
       <c r="H2" t="n">
-        <v>3.57987212969801e-234</v>
+        <v>3.54976313794656e-234</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +504,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.292033871636137</v>
+        <v>0.291986864170761</v>
       </c>
       <c r="F3" t="n">
-        <v>0.123037992148233</v>
+        <v>0.123035655961286</v>
       </c>
       <c r="G3" t="n">
-        <v>2.37352598605724</v>
+        <v>2.3731889905365</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0176191532036777</v>
+        <v>0.0176352378540523</v>
       </c>
     </row>
     <row r="4">
@@ -528,16 +528,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0861065779296282</v>
+        <v>-0.0861054378653046</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0169913091468242</v>
+        <v>0.016991376843308</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.06768355431414</v>
+        <v>-5.06759626717462</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000000402686122443963</v>
+        <v>0.000000402870767472839</v>
       </c>
     </row>
     <row r="5">
@@ -552,16 +552,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0946650176764071</v>
+        <v>0.0946749891269489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0794278640805677</v>
+        <v>0.0794285547612951</v>
       </c>
       <c r="G5" t="n">
-        <v>1.19183637596478</v>
+        <v>1.19195155207688</v>
       </c>
       <c r="H5" t="n">
-        <v>0.233325409474254</v>
+        <v>0.233280242534252</v>
       </c>
     </row>
     <row r="6">
@@ -576,16 +576,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.046007181148503</v>
+        <v>0.0460120454185955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0141596590877243</v>
+        <v>0.0141597098131727</v>
       </c>
       <c r="G6" t="n">
-        <v>3.24917294007374</v>
+        <v>3.24950482924381</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00115741088787496</v>
+        <v>0.00115606115299813</v>
       </c>
     </row>
     <row r="7">
@@ -600,16 +600,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.228764017865039</v>
+        <v>-0.228769956394571</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00895234448438663</v>
+        <v>0.00895236306924463</v>
       </c>
       <c r="G7" t="n">
-        <v>-25.5535316211318</v>
+        <v>-25.5541419204163</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000501619529661023</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000493845455293734</v>
       </c>
     </row>
     <row r="8">
@@ -624,16 +624,16 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.164492584997679</v>
+        <v>0.164503571682409</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0135562225559706</v>
+        <v>0.0135562974694023</v>
       </c>
       <c r="G8" t="n">
-        <v>12.1341018354137</v>
+        <v>12.1348452299536</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000000000000000000000000000000000696702390781185</v>
+        <v>0.000000000000000000000000000000000690404166332644</v>
       </c>
     </row>
     <row r="9">
@@ -648,16 +648,16 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.255213030744132</v>
+        <v>0.25519293647428</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0136955441957162</v>
+        <v>0.0136954993487783</v>
       </c>
       <c r="G9" t="n">
-        <v>18.6347491634513</v>
+        <v>18.6333429673044</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000167939775388083</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000017241141948617</v>
       </c>
     </row>
     <row r="10">
@@ -672,16 +672,16 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0851324379824506</v>
+        <v>0.0851894912374077</v>
       </c>
       <c r="F10" t="n">
-        <v>0.131335373969749</v>
+        <v>0.131333281407969</v>
       </c>
       <c r="G10" t="n">
-        <v>0.648206461132547</v>
+        <v>0.648651204965921</v>
       </c>
       <c r="H10" t="n">
-        <v>0.516851423518438</v>
+        <v>0.516563850407194</v>
       </c>
     </row>
     <row r="11">
@@ -696,16 +696,16 @@
         <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0915480790732587</v>
+        <v>0.0915339260627001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0194387608230469</v>
+        <v>0.0194387931130947</v>
       </c>
       <c r="G11" t="n">
-        <v>4.70956353167934</v>
+        <v>4.70882762783453</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00000248247826472591</v>
+        <v>0.00000249145649119132</v>
       </c>
     </row>
     <row r="12">
@@ -720,16 +720,16 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>0.521219568420154</v>
+        <v>0.521207881208997</v>
       </c>
       <c r="F12" t="n">
-        <v>0.081628011004181</v>
+        <v>0.0816286853136811</v>
       </c>
       <c r="G12" t="n">
-        <v>6.38530281466073</v>
+        <v>6.3851068923395</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000000000171058633244497</v>
+        <v>0.00000000017127778672264</v>
       </c>
     </row>
     <row r="13">
@@ -744,16 +744,16 @@
         <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0749126401971305</v>
+        <v>-0.0749114576857411</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0163830309527223</v>
+        <v>0.0163830823838636</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.57257514884218</v>
+        <v>-4.57248861542224</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00000481766351509236</v>
+        <v>0.00000481965418401252</v>
       </c>
     </row>
     <row r="14">
@@ -768,16 +768,16 @@
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0437243066365099</v>
+        <v>-0.0436764308943561</v>
       </c>
       <c r="F14" t="n">
-        <v>0.129546372026596</v>
+        <v>0.129544258202546</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.337518573098545</v>
+        <v>-0.337154509975014</v>
       </c>
       <c r="H14" t="n">
-        <v>0.735726013413012</v>
+        <v>0.736000427419946</v>
       </c>
     </row>
     <row r="15">
@@ -792,16 +792,16 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>0.129536683716831</v>
+        <v>0.129527359368171</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0264026679672472</v>
+        <v>0.0264028050719436</v>
       </c>
       <c r="G15" t="n">
-        <v>4.9061967479015</v>
+        <v>4.9058181134629</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000000928593793839863</v>
+        <v>0.000000930387135640147</v>
       </c>
     </row>
     <row r="16">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.411203983060381</v>
+        <v>-0.411224596516806</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0814107558120719</v>
+        <v>0.0814114520981751</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.05097857105764</v>
+        <v>-5.0511885725967</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000000439552385536172</v>
+        <v>0.00000043906933973039</v>
       </c>
     </row>
     <row r="17">
@@ -840,16 +840,16 @@
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.214890979974212</v>
+        <v>0.21487997386387</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0230239457971206</v>
+        <v>0.0230240485769023</v>
       </c>
       <c r="G17" t="n">
-        <v>9.33336891372835</v>
+        <v>9.33284922267916</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0000000000000000000102558123221975</v>
+        <v>0.0000000000000000000103062386466645</v>
       </c>
     </row>
     <row r="18">
@@ -864,16 +864,16 @@
         <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0443901864106964</v>
+        <v>0.0444194208143669</v>
       </c>
       <c r="F18" t="n">
-        <v>0.137030104387414</v>
+        <v>0.137027603150266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.323944775559652</v>
+        <v>0.324164035516669</v>
       </c>
       <c r="H18" t="n">
-        <v>0.745979844216812</v>
+        <v>0.745813848653511</v>
       </c>
     </row>
     <row r="19">
@@ -888,16 +888,16 @@
         <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0778921791527862</v>
+        <v>-0.0778929736689506</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0250980719186395</v>
+        <v>0.0250980329731068</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.10351246921634</v>
+        <v>-3.10354894156108</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00191238176121695</v>
+        <v>0.00191214605956891</v>
       </c>
     </row>
     <row r="20">
@@ -912,16 +912,16 @@
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.452428457283626</v>
+        <v>-0.452409346541237</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0820431444276439</v>
+        <v>0.0820438317754416</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.51451873815776</v>
+        <v>-5.51423960523328</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0000000349735645950603</v>
+        <v>0.0000000350291109877751</v>
       </c>
     </row>
     <row r="21">
@@ -936,16 +936,16 @@
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0965096992804967</v>
+        <v>-0.0965034132737221</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0191725644683763</v>
+        <v>0.0191725566719624</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.03373971904916</v>
+        <v>-5.03341390117505</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000000481002656890068</v>
+        <v>0.000000481821268804177</v>
       </c>
     </row>
     <row r="22">
@@ -962,7 +962,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>0.250421681712393</v>
+        <v>0.250420175707355</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>

--- a/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
@@ -480,16 +480,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.85411110514352</v>
+        <v>-1.85414122002305</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0567441932465798</v>
+        <v>0.0567385486402315</v>
       </c>
       <c r="G2" t="n">
-        <v>-32.6749046741496</v>
+        <v>-32.6786860865937</v>
       </c>
       <c r="H2" t="n">
-        <v>3.54976313794656e-234</v>
+        <v>3.13679297663738e-234</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +504,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.291986864170761</v>
+        <v>0.292049415566672</v>
       </c>
       <c r="F3" t="n">
-        <v>0.123035655961286</v>
+        <v>0.123039539660444</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3731889905365</v>
+        <v>2.3736224661816</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0176352378540523</v>
+        <v>0.0176145506174559</v>
       </c>
     </row>
     <row r="4">
@@ -528,16 +528,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0861054378653046</v>
+        <v>-0.086106657949389</v>
       </c>
       <c r="F4" t="n">
-        <v>0.016991376843308</v>
+        <v>0.0169913826882651</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.06759626717462</v>
+        <v>-5.06766632999548</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000000402870767472839</v>
+        <v>0.000000402722551868233</v>
       </c>
     </row>
     <row r="5">
@@ -552,16 +552,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0946749891269489</v>
+        <v>0.0946448297334892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0794285547612951</v>
+        <v>0.0794274253782542</v>
       </c>
       <c r="G5" t="n">
-        <v>1.19195155207688</v>
+        <v>1.19158879043058</v>
       </c>
       <c r="H5" t="n">
-        <v>0.233280242534252</v>
+        <v>0.233422522481446</v>
       </c>
     </row>
     <row r="6">
@@ -576,16 +576,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0460120454185955</v>
+        <v>0.0460102803291817</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0141597098131727</v>
+        <v>0.0141597155746828</v>
       </c>
       <c r="G6" t="n">
-        <v>3.24950482924381</v>
+        <v>3.24937885132713</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00115606115299813</v>
+        <v>0.00115657331163931</v>
       </c>
     </row>
     <row r="7">
@@ -600,16 +600,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.228769956394571</v>
+        <v>-0.228763887353924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00895236306924463</v>
+        <v>0.00895237579886399</v>
       </c>
       <c r="G7" t="n">
-        <v>-25.5541419204163</v>
+        <v>-25.5534276591643</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000493845455293734</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000502955938754853</v>
       </c>
     </row>
     <row r="8">
@@ -624,16 +624,16 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.164503571682409</v>
+        <v>0.164501612331678</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0135562974694023</v>
+        <v>0.0135562985600596</v>
       </c>
       <c r="G8" t="n">
-        <v>12.1348452299536</v>
+        <v>12.1346997193129</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000000000000000000000000000000000690404166332644</v>
+        <v>0.000000000000000000000000000000000691632500942549</v>
       </c>
     </row>
     <row r="9">
@@ -648,16 +648,16 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25519293647428</v>
+        <v>0.255200093700153</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0136954993487783</v>
+        <v>0.0136955372804065</v>
       </c>
       <c r="G9" t="n">
-        <v>18.6333429673044</v>
+        <v>18.6338139552404</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000017241141948617</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000170900629052753</v>
       </c>
     </row>
     <row r="10">
@@ -672,16 +672,16 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0851894912374077</v>
+        <v>0.0851155363888582</v>
       </c>
       <c r="F10" t="n">
-        <v>0.131333281407969</v>
+        <v>0.131336886079851</v>
       </c>
       <c r="G10" t="n">
-        <v>0.648651204965921</v>
+        <v>0.648070309334952</v>
       </c>
       <c r="H10" t="n">
-        <v>0.516563850407194</v>
+        <v>0.516939476384586</v>
       </c>
     </row>
     <row r="11">
@@ -696,16 +696,16 @@
         <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0915339260627001</v>
+        <v>0.0915320632052778</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0194387931130947</v>
+        <v>0.0194388090793981</v>
       </c>
       <c r="G11" t="n">
-        <v>4.70882762783453</v>
+        <v>4.70872792831154</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00000249145649119132</v>
+        <v>0.00000249267524728832</v>
       </c>
     </row>
     <row r="12">
@@ -720,16 +720,16 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>0.521207881208997</v>
+        <v>0.52123452254742</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0816286853136811</v>
+        <v>0.0816275937528633</v>
       </c>
       <c r="G12" t="n">
-        <v>6.3851068923395</v>
+        <v>6.38551865347784</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00000000017127778672264</v>
+        <v>0.000000000170817518882475</v>
       </c>
     </row>
     <row r="13">
@@ -744,16 +744,16 @@
         <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0749114576857411</v>
+        <v>-0.0749140085792825</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0163830823838636</v>
+        <v>0.0163830963349736</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.57248861542224</v>
+        <v>-4.57264042446975</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00000481965418401252</v>
+        <v>0.00000481616239482633</v>
       </c>
     </row>
     <row r="14">
@@ -768,16 +768,16 @@
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0436764308943561</v>
+        <v>-0.0437687761699233</v>
       </c>
       <c r="F14" t="n">
-        <v>0.129544258202546</v>
+        <v>0.129547773326024</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.337154509975014</v>
+        <v>-0.337858189656208</v>
       </c>
       <c r="H14" t="n">
-        <v>0.736000427419946</v>
+        <v>0.735470056497571</v>
       </c>
     </row>
     <row r="15">
@@ -792,16 +792,16 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>0.129527359368171</v>
+        <v>0.129527527989013</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0264028050719436</v>
+        <v>0.0264027962244459</v>
       </c>
       <c r="G15" t="n">
-        <v>4.9058181134629</v>
+        <v>4.90582614386448</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000000930387135640147</v>
+        <v>0.000000930349066333303</v>
       </c>
     </row>
     <row r="16">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.411224596516806</v>
+        <v>-0.411177103625077</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0814114520981751</v>
+        <v>0.0814103716101164</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.0511885725967</v>
+        <v>-5.05067223614027</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00000043906933973039</v>
+        <v>0.000000440257936973003</v>
       </c>
     </row>
     <row r="17">
@@ -840,16 +840,16 @@
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.21487997386387</v>
+        <v>0.214887364038217</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0230240485769023</v>
+        <v>0.0230240748490622</v>
       </c>
       <c r="G17" t="n">
-        <v>9.33284922267916</v>
+        <v>9.33315954916513</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0000000000000000000103062386466645</v>
+        <v>0.0000000000000000000102760978339715</v>
       </c>
     </row>
     <row r="18">
@@ -864,16 +864,16 @@
         <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0444194208143669</v>
+        <v>0.0443792767483892</v>
       </c>
       <c r="F18" t="n">
-        <v>0.137027603150266</v>
+        <v>0.137031475319567</v>
       </c>
       <c r="G18" t="n">
-        <v>0.324164035516669</v>
+        <v>0.323861920371898</v>
       </c>
       <c r="H18" t="n">
-        <v>0.745813848653511</v>
+        <v>0.746042574625418</v>
       </c>
     </row>
     <row r="19">
@@ -888,16 +888,16 @@
         <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0778929736689506</v>
+        <v>-0.0778943332105581</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0250980329731068</v>
+        <v>0.0250980794978914</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.10354894156108</v>
+        <v>-3.10359735760269</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00191214605956891</v>
+        <v>0.00191183321328101</v>
       </c>
     </row>
     <row r="20">
@@ -912,16 +912,16 @@
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.452409346541237</v>
+        <v>-0.452397822989588</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0820438317754416</v>
+        <v>0.0820427269011591</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.51423960523328</v>
+        <v>-5.5141734078953</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0000000350291109877751</v>
+        <v>0.0000000350422965539878</v>
       </c>
     </row>
     <row r="21">
@@ -936,16 +936,16 @@
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0965034132737221</v>
+        <v>-0.0965049209407571</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0191725566719624</v>
+        <v>0.0191725919112646</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.03341390117505</v>
+        <v>-5.03348328631858</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000000481821268804177</v>
+        <v>0.000000481646827274566</v>
       </c>
     </row>
     <row r="22">
@@ -962,7 +962,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>0.250420175707355</v>
+        <v>0.250394953465824</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>

--- a/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t xml:space="preserve">effect</t>
   </si>
@@ -68,6 +68,18 @@
     <t xml:space="preserve">seasonSummer</t>
   </si>
   <si>
+    <t xml:space="preserve">length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_nightNight</t>
+  </si>
+  <si>
     <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonWinter</t>
   </si>
   <si>
@@ -104,6 +116,414 @@
     <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSummer</t>
   </si>
   <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonWinter:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSpring:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSummer:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonWinter:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSpring:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSummer:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonWinter:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSpring:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSummer:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonWinter:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSpring:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSummer:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonWinter:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonWinter:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonWinter:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonWinter:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSpring:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSpring:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSpring:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSpring:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSummer:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSummer:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSummer:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSummer:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonWinter:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonWinter:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonWinter:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonWinter:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSpring:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSpring:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSpring:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSpring:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSummer:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSummer:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSummer:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSummer:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonWinter:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonWinter:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonWinter:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonWinter:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSpring:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSpring:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSpring:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSpring:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSummer:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSummer:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSummer:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSummer:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonWinter:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonWinter:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonWinter:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonWinter:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSpring:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSpring:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSpring:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSpring:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSummer:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSummer:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSummer:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSummer:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonWinter:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSpring:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSummer:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonWinter:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSpring:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSummer:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonWinter:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSpring:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonSummer:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonWinter:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonWinter:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonWinter:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonWinter:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSpring:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSpring:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSpring:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSpring:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSummer:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSummer:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSummer:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSummer:length:day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonWinter:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonWinter:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonWinter:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonWinter:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSpring:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSpring:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSpring:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSpring:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSummer:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSummer:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSummer:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSummer:length:day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonWinter:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonWinter:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonWinter:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonWinter:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSpring:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSpring:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSpring:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSpring:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSummer:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonSummer:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonSummer:length:day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSummer:length:day_nightNight</t>
+  </si>
+  <si>
     <t xml:space="preserve">ran_pars</t>
   </si>
   <si>
@@ -111,6 +531,120 @@
   </si>
   <si>
     <t xml:space="preserve">sd__(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animal_id.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__seasonFall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__seasonWinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__seasonSpring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__seasonSummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__seasonFall.seasonWinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__seasonFall.seasonSpring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__seasonFall.seasonSummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__seasonWinter.seasonSpring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__seasonWinter.seasonSummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__seasonSpring.seasonSummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animal_id.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__habitat_typeDeep/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__habitat_typeExposed/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__habitat_typeMod/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__habitat_typeShallow/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__habitat_typeShallow/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeExposed/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeMod/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeShallow/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeShallow/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeExposed/Low SAV.habitat_typeMod/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeExposed/Low SAV.habitat_typeShallow/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeExposed/Low SAV.habitat_typeShallow/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeMod/Dense SAV.habitat_typeShallow/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeMod/Dense SAV.habitat_typeShallow/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeShallow/Dense SAV.habitat_typeShallow/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animal_id.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__day_nightDawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__day_nightDawn.day_nightDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__day_nightDawn.day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__day_nightDawn.day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__day_nightDay.day_nightDusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__day_nightDay.day_nightNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__day_nightDusk.day_nightNight</t>
   </si>
 </sst>
 </file>
@@ -480,16 +1014,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.85414122002305</v>
+        <v>-2.24218144910769</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0567385486402315</v>
+        <v>0.217203813649422</v>
       </c>
       <c r="G2" t="n">
-        <v>-32.6786860865937</v>
+        <v>-10.3229377580206</v>
       </c>
       <c r="H2" t="n">
-        <v>3.13679297663738e-234</v>
+        <v>0.000000000000000000000000554985657187988</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +1038,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.292049415566672</v>
+        <v>0.152450498451526</v>
       </c>
       <c r="F3" t="n">
-        <v>0.123039539660444</v>
+        <v>0.912207811018819</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3736224661816</v>
+        <v>0.167122553227492</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0176145506174559</v>
+        <v>0.867273620660405</v>
       </c>
     </row>
     <row r="4">
@@ -528,16 +1062,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.086106657949389</v>
+        <v>-0.0994555365836977</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0169913826882651</v>
+        <v>0.457858326374507</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.06766632999548</v>
+        <v>-0.217219019191425</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000000402722551868233</v>
+        <v>0.828037663356136</v>
       </c>
     </row>
     <row r="5">
@@ -552,16 +1086,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0946448297334892</v>
+        <v>1.22787294388646</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0794274253782542</v>
+        <v>1.78013070945027</v>
       </c>
       <c r="G5" t="n">
-        <v>1.19158879043058</v>
+        <v>0.689765609552149</v>
       </c>
       <c r="H5" t="n">
-        <v>0.233422522481446</v>
+        <v>0.490341598821152</v>
       </c>
     </row>
     <row r="6">
@@ -576,16 +1110,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0460102803291817</v>
+        <v>0.0740661475362036</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0141597155746828</v>
+        <v>0.280098080428651</v>
       </c>
       <c r="G6" t="n">
-        <v>3.24937885132713</v>
+        <v>0.264429329265148</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00115657331163931</v>
+        <v>0.791449114078618</v>
       </c>
     </row>
     <row r="7">
@@ -600,16 +1134,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.228763887353924</v>
+        <v>0.0607893679964071</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00895237579886399</v>
+        <v>0.163167911214199</v>
       </c>
       <c r="G7" t="n">
-        <v>-25.5534276591643</v>
+        <v>0.372557125626287</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000502955938754853</v>
+        <v>0.709478087820417</v>
       </c>
     </row>
     <row r="8">
@@ -624,16 +1158,16 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.164501612331678</v>
+        <v>0.838617305004813</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0135562985600596</v>
+        <v>0.266381848326381</v>
       </c>
       <c r="G8" t="n">
-        <v>12.1346997193129</v>
+        <v>3.14817736371177</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000000000000000000000000000000000691632500942549</v>
+        <v>0.00164291974958858</v>
       </c>
     </row>
     <row r="9">
@@ -648,16 +1182,16 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.255200093700153</v>
+        <v>0.38978633994008</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0136955372804065</v>
+        <v>0.24146345951765</v>
       </c>
       <c r="G9" t="n">
-        <v>18.6338139552404</v>
+        <v>1.61426636029618</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000170900629052753</v>
+        <v>0.106469663451674</v>
       </c>
     </row>
     <row r="10">
@@ -672,16 +1206,16 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0851155363888582</v>
+        <v>0.611374995947742</v>
       </c>
       <c r="F10" t="n">
-        <v>0.131336886079851</v>
+        <v>0.331015893470244</v>
       </c>
       <c r="G10" t="n">
-        <v>0.648070309334952</v>
+        <v>1.84696568354564</v>
       </c>
       <c r="H10" t="n">
-        <v>0.516939476384586</v>
+        <v>0.0647521139728934</v>
       </c>
     </row>
     <row r="11">
@@ -696,16 +1230,16 @@
         <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0915320632052778</v>
+        <v>0.0257022171300405</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0194388090793981</v>
+        <v>0.165822874444057</v>
       </c>
       <c r="G11" t="n">
-        <v>4.70872792831154</v>
+        <v>0.154998019520591</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00000249267524728832</v>
+        <v>0.876822878631165</v>
       </c>
     </row>
     <row r="12">
@@ -720,16 +1254,16 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>0.52123452254742</v>
+        <v>0.257675704927447</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0816275937528633</v>
+        <v>0.17860097516221</v>
       </c>
       <c r="G12" t="n">
-        <v>6.38551865347784</v>
+        <v>1.44274522965745</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000000000170817518882475</v>
+        <v>0.149092252995804</v>
       </c>
     </row>
     <row r="13">
@@ -744,16 +1278,16 @@
         <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0749140085792825</v>
+        <v>0.0875964473381826</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0163830963349736</v>
+        <v>0.154863614827995</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.57264042446975</v>
+        <v>0.565636075558968</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00000481616239482633</v>
+        <v>0.571641198682697</v>
       </c>
     </row>
     <row r="14">
@@ -768,16 +1302,16 @@
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0437687761699233</v>
+        <v>-1.33052836882032</v>
       </c>
       <c r="F14" t="n">
-        <v>0.129547773326024</v>
+        <v>1.44718541355613</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.337858189656208</v>
+        <v>-0.919390394870588</v>
       </c>
       <c r="H14" t="n">
-        <v>0.735470056497571</v>
+        <v>0.357891411495577</v>
       </c>
     </row>
     <row r="15">
@@ -792,16 +1326,16 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>0.129527527989013</v>
+        <v>-0.179197968054033</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0264027962244459</v>
+        <v>0.538312003604572</v>
       </c>
       <c r="G15" t="n">
-        <v>4.90582614386448</v>
+        <v>-0.332888672097431</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000000930349066333303</v>
+        <v>0.73921832061109</v>
       </c>
     </row>
     <row r="16">
@@ -816,16 +1350,16 @@
         <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.411177103625077</v>
+        <v>0.636402209514153</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0814103716101164</v>
+        <v>1.78375191803546</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.05067223614027</v>
+        <v>0.356777309153537</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000000440257936973003</v>
+        <v>0.721258524501553</v>
       </c>
     </row>
     <row r="17">
@@ -840,16 +1374,16 @@
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.214887364038217</v>
+        <v>-0.365604623112645</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0230240748490622</v>
+        <v>0.34837835893244</v>
       </c>
       <c r="G17" t="n">
-        <v>9.33315954916513</v>
+        <v>-1.04944699846739</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0000000000000000000102760978339715</v>
+        <v>0.293972436920789</v>
       </c>
     </row>
     <row r="18">
@@ -864,16 +1398,16 @@
         <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0443792767483892</v>
+        <v>0.248970920563357</v>
       </c>
       <c r="F18" t="n">
-        <v>0.137031475319567</v>
+        <v>0.273255526825975</v>
       </c>
       <c r="G18" t="n">
-        <v>0.323861920371898</v>
+        <v>0.91112858157089</v>
       </c>
       <c r="H18" t="n">
-        <v>0.746042574625418</v>
+        <v>0.362227628506891</v>
       </c>
     </row>
     <row r="19">
@@ -888,16 +1422,16 @@
         <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0778943332105581</v>
+        <v>0.219392876517349</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0250980794978914</v>
+        <v>0.715425487297696</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.10359735760269</v>
+        <v>0.306660694108117</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00191183321328101</v>
+        <v>0.759101650665872</v>
       </c>
     </row>
     <row r="20">
@@ -912,16 +1446,16 @@
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.452397822989588</v>
+        <v>-0.736551459705272</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0820427269011591</v>
+        <v>1.77381393502034</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.5141734078953</v>
+        <v>-0.415236031899154</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0000000350422965539878</v>
+        <v>0.677969123985017</v>
       </c>
     </row>
     <row r="21">
@@ -936,37 +1470,4017 @@
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0965049209407571</v>
+        <v>-0.267301961875592</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0191725919112646</v>
+        <v>0.381585357147218</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.03348328631858</v>
+        <v>-0.70050371920447</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000000481646827274566</v>
+        <v>0.483612783307509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" t="n">
+        <v>0.26144401433476</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.341164594621515</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.766328096339552</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.443481104609294</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E23" t="n">
+        <v>1.67921308747774</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.685585725656064</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.44931162455408</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0143129556070386</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.250394953465824</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
+      <c r="E24" t="n">
+        <v>-0.372695895785105</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.55405569683538</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.239821453339188</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.810468674873958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.363059987125708</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.339496082197836</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1.06940847380425</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.284885650670441</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0132625173038167</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.33294262242836</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.00994980360043924</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.992061336310492</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0570317646829869</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.627727664095204</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0908543114237151</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.927608354182497</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.901930808439248</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.54374994466004</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.35456740169474</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.722913701081896</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0420594525009377</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.52388473599606</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0802837907101267</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.936011549736115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.185807076023845</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.246009628476914</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.755283755250586</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.450078743601349</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.2103439282628</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.423390058337003</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-2.85869709132237</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.00425384764238088</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.487533389005293</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.359322791273609</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1.35681176047098</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.17484102974157</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.512435789818435</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.839898993348754</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.610115970939918</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.541784987727868</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.214202596344044</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.455238467816616</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.470528330726065</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.637977598213246</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.375115835234882</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.90126548387556</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.197297977802785</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.843594361725179</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.371836104688078</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.287688272193317</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.29249656877989</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.196185233429196</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.3158269948051</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.05248447338412</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.300077580992335</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.764117979420423</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.0285952966436717</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.591131346513021</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.0483738458675052</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.96141830287027</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.859695074999231</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.78300402458344</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.308909030459598</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.757390727240937</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.246420664375851</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.397082649795293</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.62057776763323</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.534877471404912</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.602855667179203</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.777039523422339</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.775836555293902</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.43784549704112</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.558247977884711</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.458956961619654</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1.21634058216409</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.223855208278124</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.552650342449954</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.819814827215285</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.674116061461312</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.500237528978484</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.209981272771886</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.281970662214032</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.744691916255099</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.456457987146934</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.0534376920026432</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.137408000682494</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.388897966182629</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.697351626730615</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.434512334075697</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.238813761056224</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.81946104007549</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0688411215016888</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.234438837371383</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.221270044985807</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.05951457363522</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.289365495659152</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.0942823966222136</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.177866851045224</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.530072894798378</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.596061391218781</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.929481029780143</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.307518813838941</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-3.02251760852248</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.00250681497978133</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0556467717646242</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.316317066581404</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.17592086435938</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.860356113590133</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.138041316084304</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.135858036395564</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1.01607030210847</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.309595909948106</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.716211533075874</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.240771077709744</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-2.97465767021771</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0029331567538437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.252872161922333</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.216563782884866</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.16765674552688</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.242945250880612</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.0367780137318349</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.250052773510115</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.147081007003296</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.883068081045518</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.22160391958272</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.27046576075875</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.819341860356165</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.412591395857209</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.327816788554634</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.234110811710861</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1.40026334605813</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.16143447272821</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.31359297557312</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.12839237197387</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.08701431467145</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.277030483483902</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.288622034945942</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.744031630754716</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.387916350616942</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.698077937734897</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.05095455466833</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.54020265795656</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.413728625697036</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.679072860433732</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.452904225137997</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.644421424677824</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.702807522832477</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.482175708393258</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.279756932190491</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.01936215110513</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.274443122973712</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.783744107320118</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.226265483651359</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.54583370407869</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0888767727793288</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.92917984312413</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.635302480370704</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.668992091675785</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.949641241317681</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.342294575465653</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1.99375241793048</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.923297284013061</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2.15938295547101</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0308204691193914</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.159589228292072</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.22902116056991</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.0715961028612526</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.942923341584047</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.489504007301027</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.595025082002814</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.822661131617156</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.410700724410769</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.942843574752104</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.45558167841029</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.647743502640009</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.517150862377911</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.354657971191829</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.556338349910395</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.637486111192857</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.523808253878536</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.743966040627573</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.00380029455836</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.371277538309546</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.710430826095985</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.264333819813768</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.366290515743011</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.721650734738719</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.470509238228018</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.416720693993922</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.301329234210231</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1.38294146960592</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.166682813391948</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.328729936628176</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.728646418216204</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.451151516579109</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.651880350298017</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.479900393226068</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.97228832134473</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.243321621911175</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.80775625577394</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.155009925716355</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.398559954381024</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.388924988605767</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.697331636382024</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.0847323233535366</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.379038071075714</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.223545680023818</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.823110834963754</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.80604258559956</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.695879452533679</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1.15830778256892</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.246738456538044</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.122232438561764</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.79839916987585</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0679673570858035</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.945811619444923</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.154649463779266</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.359403071275332</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.430295331730184</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.666980822500744</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.45750296687003</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.06350498258873</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.22171158816204</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.824538408564729</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.161475658498568</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.712634600034919</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.226589697568228</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.820742804096382</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-2.11218223577675</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.97992603483139</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.70880357803789</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.478446377078833</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.392508725344901</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.478579288798518</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.820154015294523</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.412128312798572</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.290971370533315</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.266499100528065</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1.09182871520676</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.274908394979625</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-1.25959992793854</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.913284303122965</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1.37919804778354</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.167833699825067</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.61488988610693</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.87809801878718</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.561096208525742</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.574731952700766</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.149526306912595</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.537272255591494</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.278306399328174</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.780777164145572</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.633855290420268</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.951018345012776</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.666501643994841</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.505090513219916</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.90567398723014</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.78751663080656</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.683645782116371</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.494198867611395</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.528221366621713</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.510866730079279</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1.03397096643921</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.301149736444629</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.690357474795542</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.37503223834553</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.502066392004157</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.615620819930745</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.710789361757588</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.561901184337925</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.26497217227811</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.205881303512608</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.455211793927454</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.03669159999866</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.439100494233811</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.660588721003215</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.133172584249512</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.361409253914793</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.368481390022484</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.712514319103071</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.295877470855906</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.267832832061372</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1.10470948829794</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.269285490710385</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.01633868997006</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.736215420127392</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.38049090277707</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.167435548738591</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.672974557085342</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.979158988614222</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.687298554076274</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.491894609817124</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0999914817971346</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.398482417483801</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.250930724694269</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.80186766933963</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.188741173155766</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.338839843298471</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.557021781495485</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.577512547392244</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102" t="s">
+        <v>110</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.286595257735723</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.701746699147567</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.408402715800244</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.682978039906528</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.254530139087157</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.415841907747153</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.612083905795086</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.540482245205448</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.141471638701979</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.35235832702274</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.401499348397261</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.688052517792721</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105" t="s">
+        <v>113</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.493892632393762</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.22970962635008</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-0.40163354161884</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.687953741111658</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.276396848817427</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.625443988807917</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.441921025325119</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.658546355466409</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107" t="s">
+        <v>115</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.217418939811261</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.6620450785276</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0816736506699265</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.934906232058712</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108"/>
+      <c r="D108" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.849177137460796</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.545211398911069</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1.55751904519389</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.119347302417518</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.803069693666024</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.26400118752541</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.635339350620571</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.525207114336277</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110"/>
+      <c r="D110" t="s">
+        <v>118</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.204797242068599</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.812182603785594</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.252156646933874</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.800919986239177</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111" t="s">
+        <v>119</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.409560498734575</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.97063538695652</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.103147345152863</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.917846029389049</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.477610420349194</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.750022131222833</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.636795103059825</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.524258316239263</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113"/>
+      <c r="D113" t="s">
+        <v>121</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.732517698143913</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.14348427227084</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.640601463358309</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.521781648577721</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114" t="s">
+        <v>122</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.723818790281878</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.630325725144737</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.14832500310165</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.250834421045279</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115" t="s">
+        <v>123</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.316669218782885</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.03243318760637</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.306721270280998</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.759055538325698</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116" t="s">
+        <v>124</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.550184590923677</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.531640493905678</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1.03488089645272</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.300724537215174</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117" t="s">
+        <v>125</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0363273909752394</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.203642606869473</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.178387968675553</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.858418297369961</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118" t="s">
+        <v>126</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.608066986472946</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.384202268450584</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.58267411831056</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.113495760342042</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119" t="s">
+        <v>127</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.376869573769115</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.324483809489532</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.16144338406897</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.245461634604421</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.129309878542994</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.266000898799544</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.486125720351198</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.626878032009137</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121"/>
+      <c r="D121" t="s">
+        <v>129</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.34708570240123</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.4826169583767</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2.7912108744214</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.00525112484740782</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122" t="s">
+        <v>130</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.188749252508587</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.464711985176135</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.406163943538163</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.684622145026482</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123" t="s">
+        <v>131</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.234480384906364</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.201992929969375</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.16083461407245</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.245709163490716</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124" t="s">
+        <v>132</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.20286103711823</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.388112034252478</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3.09926240611166</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0019400311113578</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125" t="s">
+        <v>133</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.402883319842597</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.318301450164252</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.26572882289634</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.205610185463115</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126" t="s">
+        <v>134</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.979858880100768</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.11115790771073</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.464133391690864</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.642552179398818</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127"/>
+      <c r="D127" t="s">
+        <v>135</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.429643448670813</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.769742681180714</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.558165032516815</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.576731696149115</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128" t="s">
+        <v>136</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.0514603289873</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.78530478405881</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.377502790719761</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.705799990849383</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129" t="s">
+        <v>137</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.675976428772397</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.68006168937596</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.993992808788697</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.320226368469129</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.309222288071824</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.04190963314785</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-0.296784172287181</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.766631290026436</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132" t="s">
+        <v>140</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.900775439110862</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.76155002105076</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.326184726781853</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.744284596282632</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133" t="s">
+        <v>141</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.327415049999207</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.701058778319052</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.467029384874488</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.640478854645305</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134"/>
+      <c r="D134" t="s">
+        <v>142</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.967453080183377</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.94150224222954</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.02756322480166</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.304155330513024</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136" t="s">
+        <v>144</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-0.178969135425328</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.50263261770722</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-0.0715123483003627</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.942989997197843</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137" t="s">
+        <v>145</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.40433950915309</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.632663379806613</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.639106864817566</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.52275341438059</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138" t="s">
+        <v>146</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.0171886893531749</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.83633620913079</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-0.00606017343707022</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.995164710775357</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139"/>
+      <c r="D139" t="s">
+        <v>147</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.255599625321557</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.986147570065619</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.259190037150879</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.79548861772006</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140" t="s">
+        <v>148</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.16484392943896</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4.19305537564932</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.754782287832023</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.450379623100144</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141" t="s">
+        <v>149</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.685837476972601</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.887673988018753</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.772623154704982</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.439745437010714</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142"/>
+      <c r="D142" t="s">
+        <v>150</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143" t="s">
+        <v>151</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.79472762063307</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.29351179035866</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.38748454711452</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.165294059942265</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144" t="s">
+        <v>152</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-1.42072205602526</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4.09585094701023</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-0.346868593219273</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.72869004243313</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145" t="s">
+        <v>153</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-0.279392054702616</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.940922287322245</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-0.296934251071609</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.766516706237503</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146" t="s">
+        <v>154</v>
+      </c>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147" t="s">
+        <v>155</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.819018966579203</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.29371206864172</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.633076699546523</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.526683557278804</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148" t="s">
+        <v>156</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-1.56832045176555</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3.95685886068085</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-0.396354913578012</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.691843221986622</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149" t="s">
+        <v>157</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.698704464713397</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.891785022259949</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.783489795492135</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.433339543775677</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150" t="s">
+        <v>158</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.71158426659792</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.00119073844229</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.355580431654312</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.722154800376625</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151" t="s">
+        <v>159</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-0.895134696900264</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.777106589781169</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1.15188149048167</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.249369775235652</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152"/>
+      <c r="D152" t="s">
+        <v>160</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.767965484392835</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.32037140542485</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.581628382163977</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.56081702106977</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153"/>
+      <c r="D153" t="s">
+        <v>161</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.406160930142346</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.668734770806157</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.607357278062154</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.543613833937165</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154"/>
+      <c r="D154" t="s">
+        <v>162</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155"/>
+      <c r="D155" t="s">
+        <v>163</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-1.31721760961353</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.05085126140476</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1.25347673642481</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.210032260192531</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156"/>
+      <c r="D156" t="s">
+        <v>164</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-0.510007371593797</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.27554679397579</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-0.399834309491806</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.68927855855638</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157"/>
+      <c r="D157" t="s">
+        <v>165</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.0174886796095235</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.696854121649165</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-0.0250966150105205</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.979977900163596</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158"/>
+      <c r="D158" t="s">
+        <v>166</v>
+      </c>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159"/>
+      <c r="D159" t="s">
+        <v>167</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.336430258117325</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.94919656547989</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.35443686835006</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.723011508602687</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160"/>
+      <c r="D160" t="s">
+        <v>168</v>
+      </c>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161"/>
+      <c r="D161" t="s">
+        <v>169</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.41520453057847</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.618577104659077</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.671225183491564</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.50207708789809</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>171</v>
+      </c>
+      <c r="D162" t="s">
+        <v>172</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.0984344273469094</v>
+      </c>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>173</v>
+      </c>
+      <c r="D163" t="s">
+        <v>174</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0723049387237089</v>
+      </c>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>173</v>
+      </c>
+      <c r="D164" t="s">
+        <v>175</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.0723049387237089</v>
+      </c>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>173</v>
+      </c>
+      <c r="D165" t="s">
+        <v>176</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.0723049387237089</v>
+      </c>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>173</v>
+      </c>
+      <c r="D166" t="s">
+        <v>177</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.0723049387237089</v>
+      </c>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>173</v>
+      </c>
+      <c r="D167" t="s">
+        <v>178</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.452071983890838</v>
+      </c>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>173</v>
+      </c>
+      <c r="D168" t="s">
+        <v>179</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.204369078618998</v>
+      </c>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>173</v>
+      </c>
+      <c r="D169" t="s">
+        <v>180</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.0923895348172333</v>
+      </c>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170" t="s">
+        <v>181</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.452071983890838</v>
+      </c>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.204369078618998</v>
+      </c>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172" t="s">
+        <v>183</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.452071983890838</v>
+      </c>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>184</v>
+      </c>
+      <c r="D173" t="s">
+        <v>185</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.0801161308982265</v>
+      </c>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>170</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>184</v>
+      </c>
+      <c r="D174" t="s">
+        <v>186</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.0801161308982265</v>
+      </c>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>184</v>
+      </c>
+      <c r="D175" t="s">
+        <v>187</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.0801161308982265</v>
+      </c>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>170</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>184</v>
+      </c>
+      <c r="D176" t="s">
+        <v>188</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.0801161308982265</v>
+      </c>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>184</v>
+      </c>
+      <c r="D177" t="s">
+        <v>189</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.0801161308982265</v>
+      </c>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>170</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>184</v>
+      </c>
+      <c r="D178" t="s">
+        <v>190</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-0.945457856571656</v>
+      </c>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>170</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>184</v>
+      </c>
+      <c r="D179" t="s">
+        <v>191</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.893890558553071</v>
+      </c>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>170</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>184</v>
+      </c>
+      <c r="D180" t="s">
+        <v>192</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.845135851499227</v>
+      </c>
+      <c r="F180"/>
+      <c r="G180"/>
+      <c r="H180"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>170</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181" t="s">
+        <v>193</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.799040330670321</v>
+      </c>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>170</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>184</v>
+      </c>
+      <c r="D182" t="s">
+        <v>194</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-0.945457856571656</v>
+      </c>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>170</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" t="s">
+        <v>195</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.893890558553071</v>
+      </c>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>170</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
+        <v>184</v>
+      </c>
+      <c r="D184" t="s">
+        <v>196</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-0.845135851499227</v>
+      </c>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>170</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>184</v>
+      </c>
+      <c r="D185" t="s">
+        <v>197</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-0.945457856571656</v>
+      </c>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>170</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>184</v>
+      </c>
+      <c r="D186" t="s">
+        <v>198</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.893890558553071</v>
+      </c>
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>170</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>184</v>
+      </c>
+      <c r="D187" t="s">
+        <v>199</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-0.945457856571656</v>
+      </c>
+      <c r="F187"/>
+      <c r="G187"/>
+      <c r="H187"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>170</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>200</v>
+      </c>
+      <c r="D188" t="s">
+        <v>201</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.0620903411944467</v>
+      </c>
+      <c r="F188"/>
+      <c r="G188"/>
+      <c r="H188"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>170</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>200</v>
+      </c>
+      <c r="D189" t="s">
+        <v>202</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.0620903411944467</v>
+      </c>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>170</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>200</v>
+      </c>
+      <c r="D190" t="s">
+        <v>203</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.0620903411944467</v>
+      </c>
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="H190"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>170</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>200</v>
+      </c>
+      <c r="D191" t="s">
+        <v>204</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.0620903411944467</v>
+      </c>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>170</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>200</v>
+      </c>
+      <c r="D192" t="s">
+        <v>205</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-0.405210090190714</v>
+      </c>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>170</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>200</v>
+      </c>
+      <c r="D193" t="s">
+        <v>206</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.164195217192367</v>
+      </c>
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="H193"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>170</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>200</v>
+      </c>
+      <c r="D194" t="s">
+        <v>207</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-0.0665335587674029</v>
+      </c>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>170</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>200</v>
+      </c>
+      <c r="D195" t="s">
+        <v>208</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-0.405210090190714</v>
+      </c>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>170</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>200</v>
+      </c>
+      <c r="D196" t="s">
+        <v>209</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.164195217192367</v>
+      </c>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>170</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>200</v>
+      </c>
+      <c r="D197" t="s">
+        <v>210</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-0.405210090190714</v>
+      </c>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
@@ -693,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.82937784986591</v>
+        <v>-1.82731324068737</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0399344519967995</v>
+        <v>0.039903947288413</v>
       </c>
       <c r="G2" t="n">
-        <v>-45.8095143013989</v>
+        <v>-45.7927940682192</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -717,16 +717,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0878346869026986</v>
+        <v>0.0779963724489271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1767854197584</v>
+        <v>0.180054362663429</v>
       </c>
       <c r="G3" t="n">
-        <v>0.496843501136779</v>
+        <v>0.43318235279155</v>
       </c>
       <c r="H3" t="n">
-        <v>0.619299416186118</v>
+        <v>0.664882298277725</v>
       </c>
     </row>
     <row r="4">
@@ -741,16 +741,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0233980656425862</v>
+        <v>-0.0225378479621606</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0434224256060694</v>
+        <v>0.0433351903628014</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.538847503703609</v>
+        <v>-0.520081895878942</v>
       </c>
       <c r="H4" t="n">
-        <v>0.589992082567865</v>
+        <v>0.603006496108109</v>
       </c>
     </row>
     <row r="5">
@@ -765,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.744486885273657</v>
+        <v>0.745579313604499</v>
       </c>
       <c r="F5" t="n">
-        <v>0.257363881801508</v>
+        <v>0.256438579979774</v>
       </c>
       <c r="G5" t="n">
-        <v>2.8927403490434</v>
+        <v>2.90743816185266</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00381896863232314</v>
+        <v>0.00364402383562506</v>
       </c>
     </row>
     <row r="6">
@@ -789,16 +789,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0622916988166993</v>
+        <v>0.0598098864761239</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0377684549737917</v>
+        <v>0.037831983888209</v>
       </c>
       <c r="G6" t="n">
-        <v>1.64930492549734</v>
+        <v>1.58093444564943</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0990851810918999</v>
+        <v>0.113893027379202</v>
       </c>
     </row>
     <row r="7">
@@ -813,16 +813,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0824275612604401</v>
+        <v>-0.0823688123144643</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035295016049563</v>
+        <v>0.03514950957136</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.33538812235391</v>
+        <v>-2.34338439764687</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0195231543511033</v>
+        <v>0.0191096832388107</v>
       </c>
     </row>
     <row r="8">
@@ -837,16 +837,16 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0537062783981756</v>
+        <v>0.0530550054686098</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0456840193741732</v>
+        <v>0.0455469869415665</v>
       </c>
       <c r="G8" t="n">
-        <v>1.17560317883364</v>
+        <v>1.16484116801569</v>
       </c>
       <c r="H8" t="n">
-        <v>0.239753484680929</v>
+        <v>0.244083291293447</v>
       </c>
     </row>
     <row r="9">
@@ -861,16 +861,16 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0580842460898391</v>
+        <v>0.0548003290266924</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0447445222810835</v>
+        <v>0.0445607890135676</v>
       </c>
       <c r="G9" t="n">
-        <v>1.29813088013223</v>
+        <v>1.22978812179486</v>
       </c>
       <c r="H9" t="n">
-        <v>0.194242364611848</v>
+        <v>0.218776457399063</v>
       </c>
     </row>
     <row r="10">
@@ -885,16 +885,16 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0135856798290235</v>
+        <v>0.0123827372868232</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0226333084529213</v>
+        <v>0.0226134248528352</v>
       </c>
       <c r="G10" t="n">
-        <v>0.600251609581628</v>
+        <v>0.547583453961893</v>
       </c>
       <c r="H10" t="n">
-        <v>0.548338563152782</v>
+        <v>0.583977953156411</v>
       </c>
     </row>
     <row r="11">
@@ -909,16 +909,16 @@
         <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0964937826766018</v>
+        <v>0.0948390375536955</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0302460941836346</v>
+        <v>0.0302581075749186</v>
       </c>
       <c r="G11" t="n">
-        <v>3.19028903668535</v>
+        <v>3.13433473388498</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00142130567143303</v>
+        <v>0.00172244247937119</v>
       </c>
     </row>
     <row r="12">
@@ -933,16 +933,16 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.131454848144931</v>
+        <v>-0.13140245069284</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0223306903955915</v>
+        <v>0.0223055595849113</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.88673461573241</v>
+        <v>-5.89101789590285</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00000000393900445902584</v>
+        <v>0.00000000383823981278531</v>
       </c>
     </row>
     <row r="13">
@@ -957,16 +957,16 @@
         <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>0.165722082475634</v>
+        <v>0.174293648402525</v>
       </c>
       <c r="F13" t="n">
-        <v>0.207221584835442</v>
+        <v>0.210129635996268</v>
       </c>
       <c r="G13" t="n">
-        <v>0.799733688974712</v>
+        <v>0.829457718213627</v>
       </c>
       <c r="H13" t="n">
-        <v>0.423865109711305</v>
+        <v>0.406845452788334</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00501542457721593</v>
+        <v>-0.00802906622551922</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0545254065254502</v>
+        <v>0.0545097750916182</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0919832587561715</v>
+        <v>-0.147295897149167</v>
       </c>
       <c r="H14" t="n">
-        <v>0.926711340773292</v>
+        <v>0.882898470758963</v>
       </c>
     </row>
     <row r="15">
@@ -1005,16 +1005,16 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.592126962788456</v>
+        <v>-0.596558659496284</v>
       </c>
       <c r="F15" t="n">
-        <v>0.264112393700078</v>
+        <v>0.263276469650708</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.24195068808799</v>
+        <v>-2.26590192540847</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0249645595210664</v>
+        <v>0.0234573887131158</v>
       </c>
     </row>
     <row r="16">
@@ -1029,16 +1029,16 @@
         <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0882099364457874</v>
+        <v>-0.0828838425512359</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0470329020390608</v>
+        <v>0.0470206038016445</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.87549423109229</v>
+        <v>-1.76271327567123</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0607247623949051</v>
+        <v>0.0779488605510744</v>
       </c>
     </row>
     <row r="17">
@@ -1053,16 +1053,16 @@
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.278256917047468</v>
+        <v>0.288980549515679</v>
       </c>
       <c r="F17" t="n">
-        <v>0.199309244731959</v>
+        <v>0.202163826769512</v>
       </c>
       <c r="G17" t="n">
-        <v>1.39610642457494</v>
+        <v>1.42943747223952</v>
       </c>
       <c r="H17" t="n">
-        <v>0.162682449453754</v>
+        <v>0.152878534605854</v>
       </c>
     </row>
     <row r="18">
@@ -1077,16 +1077,16 @@
         <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0649931082289713</v>
+        <v>-0.0665869723571793</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0698265286306864</v>
+        <v>0.0698147435721273</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.93077959771881</v>
+        <v>-0.953766625073782</v>
       </c>
       <c r="H18" t="n">
-        <v>0.351967585455341</v>
+        <v>0.340201786856221</v>
       </c>
     </row>
     <row r="19">
@@ -1101,16 +1101,16 @@
         <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.91832593370407</v>
+        <v>-0.919939963669383</v>
       </c>
       <c r="F19" t="n">
-        <v>0.262906407409369</v>
+        <v>0.262005856646671</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.49297661762253</v>
+        <v>-3.51114274865227</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000477668332733532</v>
+        <v>0.000446184734336681</v>
       </c>
     </row>
     <row r="20">
@@ -1125,16 +1125,16 @@
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>0.102459362936012</v>
+        <v>0.104071551141287</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0606112529328401</v>
+        <v>0.0607096068314138</v>
       </c>
       <c r="G20" t="n">
-        <v>1.69043466317288</v>
+        <v>1.71425177287487</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0909448282079389</v>
+        <v>0.0864824961757624</v>
       </c>
     </row>
     <row r="21">
@@ -1149,16 +1149,16 @@
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>0.377412727835644</v>
+        <v>0.389674039842072</v>
       </c>
       <c r="F21" t="n">
-        <v>0.270916194286312</v>
+        <v>0.272274849932153</v>
       </c>
       <c r="G21" t="n">
-        <v>1.39309770251971</v>
+        <v>1.43117897205406</v>
       </c>
       <c r="H21" t="n">
-        <v>0.163590247780804</v>
+        <v>0.15237892852099</v>
       </c>
     </row>
     <row r="22">
@@ -1173,16 +1173,16 @@
         <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>0.10648691740291</v>
+        <v>0.106381196877377</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0667808988284508</v>
+        <v>0.0667059494108342</v>
       </c>
       <c r="G22" t="n">
-        <v>1.59457149081593</v>
+        <v>1.5947782441741</v>
       </c>
       <c r="H22" t="n">
-        <v>0.110808092070494</v>
+        <v>0.110761833754178</v>
       </c>
     </row>
     <row r="23">
@@ -1197,16 +1197,16 @@
         <v>31</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.673437254144339</v>
+        <v>-0.673927547099514</v>
       </c>
       <c r="F23" t="n">
-        <v>0.263090507370416</v>
+        <v>0.262181468581317</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.55971703759033</v>
+        <v>-2.57046217166372</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0104757420252131</v>
+        <v>0.0101562918114042</v>
       </c>
     </row>
     <row r="24">
@@ -1221,16 +1221,16 @@
         <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00967888852025194</v>
+        <v>0.0123491091355587</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0513161415955845</v>
+        <v>0.0513713330561126</v>
       </c>
       <c r="G24" t="n">
-        <v>0.188612943594433</v>
+        <v>0.240389111998901</v>
       </c>
       <c r="H24" t="n">
-        <v>0.850396187381577</v>
+        <v>0.81002861814494</v>
       </c>
     </row>
     <row r="25">
@@ -1245,16 +1245,16 @@
         <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>0.110946788898795</v>
+        <v>0.130781983810135</v>
       </c>
       <c r="F25" t="n">
-        <v>0.225979849637678</v>
+        <v>0.226952412216596</v>
       </c>
       <c r="G25" t="n">
-        <v>0.490958769450815</v>
+        <v>0.576252891664888</v>
       </c>
       <c r="H25" t="n">
-        <v>0.623455609296085</v>
+        <v>0.564444259304627</v>
       </c>
     </row>
     <row r="26">
@@ -1269,16 +1269,16 @@
         <v>34</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.03695743381962</v>
+        <v>-0.0369938367936655</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0454243428387883</v>
+        <v>0.0453423074568854</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.813604149448733</v>
+        <v>-0.815879007234948</v>
       </c>
       <c r="H26" t="n">
-        <v>0.415871760016379</v>
+        <v>0.414569339857998</v>
       </c>
     </row>
     <row r="27">
@@ -1293,16 +1293,16 @@
         <v>35</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.617730267155247</v>
+        <v>-0.61857017540774</v>
       </c>
       <c r="F27" t="n">
-        <v>0.266724422560074</v>
+        <v>0.265848128091659</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.31598689473633</v>
+        <v>-2.32678025550915</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0205589842509358</v>
+        <v>0.0199769638036071</v>
       </c>
     </row>
     <row r="28">
@@ -1317,16 +1317,16 @@
         <v>36</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0554131085757599</v>
+        <v>-0.0523151009279818</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0400857316277555</v>
+        <v>0.0401459516186041</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.3823649045585</v>
+        <v>-1.30312270151141</v>
       </c>
       <c r="H28" t="n">
-        <v>0.166859686382422</v>
+        <v>0.192532874424587</v>
       </c>
     </row>
     <row r="29">
@@ -1341,16 +1341,16 @@
         <v>37</v>
       </c>
       <c r="E29" t="n">
-        <v>0.300530198854007</v>
+        <v>0.29979967226486</v>
       </c>
       <c r="F29" t="n">
-        <v>0.224467280815588</v>
+        <v>0.223237346102058</v>
       </c>
       <c r="G29" t="n">
-        <v>1.33885971158936</v>
+        <v>1.34296378943602</v>
       </c>
       <c r="H29" t="n">
-        <v>0.180616347510944</v>
+        <v>0.179283699268452</v>
       </c>
     </row>
     <row r="30">
@@ -1365,16 +1365,16 @@
         <v>38</v>
       </c>
       <c r="E30" t="n">
-        <v>0.121332372355139</v>
+        <v>0.123583803016527</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0604807553568425</v>
+        <v>0.060347508475179</v>
       </c>
       <c r="G30" t="n">
-        <v>2.00613189500142</v>
+        <v>2.04786918530957</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04484217772099</v>
+        <v>0.0405728189599048</v>
       </c>
     </row>
     <row r="31">
@@ -1389,16 +1389,16 @@
         <v>39</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.690113043271439</v>
+        <v>-0.686891240320329</v>
       </c>
       <c r="F31" t="n">
-        <v>0.299893296249427</v>
+        <v>0.298645646747271</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.30119529813517</v>
+        <v>-2.3000209371932</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0213805945488056</v>
+        <v>0.0214470338945875</v>
       </c>
     </row>
     <row r="32">
@@ -1413,16 +1413,16 @@
         <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0442100676540359</v>
+        <v>0.0459186129892878</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0535165745092521</v>
+        <v>0.0536370312771201</v>
       </c>
       <c r="G32" t="n">
-        <v>0.826100475589908</v>
+        <v>0.85609907737148</v>
       </c>
       <c r="H32" t="n">
-        <v>0.408747097923695</v>
+        <v>0.391942978945491</v>
       </c>
     </row>
     <row r="33">
@@ -1437,16 +1437,16 @@
         <v>41</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0290179097414315</v>
+        <v>0.0442936182105515</v>
       </c>
       <c r="F33" t="n">
-        <v>0.195415691736679</v>
+        <v>0.197990522875533</v>
       </c>
       <c r="G33" t="n">
-        <v>0.148493242705058</v>
+        <v>0.223715850472281</v>
       </c>
       <c r="H33" t="n">
-        <v>0.881953518377847</v>
+        <v>0.822978411630715</v>
       </c>
     </row>
     <row r="34">
@@ -1461,16 +1461,16 @@
         <v>42</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0709984753941339</v>
+        <v>-0.0727716150393654</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0451912589523739</v>
+        <v>0.0451092505168101</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.5710665522498</v>
+        <v>-1.6132304173896</v>
       </c>
       <c r="H34" t="n">
-        <v>0.11616719084418</v>
+        <v>0.106694457378029</v>
       </c>
     </row>
     <row r="35">
@@ -1485,16 +1485,16 @@
         <v>43</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.759344399685028</v>
+        <v>-0.759613956587213</v>
       </c>
       <c r="F35" t="n">
-        <v>0.269159380113281</v>
+        <v>0.268221989268713</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.82117011625396</v>
+        <v>-2.8320346093109</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0047848821509336</v>
+        <v>0.00462528420764494</v>
       </c>
     </row>
     <row r="36">
@@ -1509,16 +1509,16 @@
         <v>44</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.019797455029854</v>
+        <v>-0.0182622007933915</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0392558261371788</v>
+        <v>0.0393165043991349</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.504318899331583</v>
+        <v>-0.464491975380023</v>
       </c>
       <c r="H36" t="n">
-        <v>0.614037298637804</v>
+        <v>0.642295307481501</v>
       </c>
     </row>
     <row r="37">
@@ -1533,16 +1533,16 @@
         <v>45</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0365277395907538</v>
+        <v>-0.0354263749783836</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0267430340540946</v>
+        <v>0.0267241140615088</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.3658786627152</v>
+        <v>-1.32563327999744</v>
       </c>
       <c r="H37" t="n">
-        <v>0.171977050947937</v>
+        <v>0.184961197153787</v>
       </c>
     </row>
     <row r="38">
@@ -1557,16 +1557,16 @@
         <v>46</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.074705779428065</v>
+        <v>-0.0728951385790886</v>
       </c>
       <c r="F38" t="n">
-        <v>0.038016320690438</v>
+        <v>0.0380178258022943</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.96509757049833</v>
+        <v>-1.91739367101549</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0494029457601139</v>
+        <v>0.0551879376798068</v>
       </c>
     </row>
     <row r="39">
@@ -1581,16 +1581,16 @@
         <v>47</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0674391506663866</v>
+        <v>0.0690617711055569</v>
       </c>
       <c r="F39" t="n">
-        <v>0.038442846609036</v>
+        <v>0.038443302200867</v>
       </c>
       <c r="G39" t="n">
-        <v>1.75427047201377</v>
+        <v>1.7964578262478</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0793841728661193</v>
+        <v>0.0724217342601719</v>
       </c>
     </row>
     <row r="40">
@@ -1605,16 +1605,16 @@
         <v>48</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.00818366652354367</v>
+        <v>-0.00625300877339365</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0351343415573168</v>
+        <v>0.0351400631455059</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.232925000464094</v>
+        <v>-0.177945291318959</v>
       </c>
       <c r="H40" t="n">
-        <v>0.815819644743572</v>
+        <v>0.858765941087597</v>
       </c>
     </row>
     <row r="41">
@@ -1629,16 +1629,16 @@
         <v>49</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0630703136238245</v>
+        <v>-0.0609864151680338</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0507797677129507</v>
+        <v>0.0507951623263886</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.24203627673821</v>
+        <v>-1.20063431978346</v>
       </c>
       <c r="H41" t="n">
-        <v>0.214223177769322</v>
+        <v>0.22989308208306</v>
       </c>
     </row>
     <row r="42">
@@ -1653,16 +1653,16 @@
         <v>50</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.0781288899399271</v>
+        <v>-0.0748403180242149</v>
       </c>
       <c r="F42" t="n">
-        <v>0.053462428414987</v>
+        <v>0.0534283471117874</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.46137936970378</v>
+        <v>-1.40076049643886</v>
       </c>
       <c r="H42" t="n">
-        <v>0.143911359100839</v>
+        <v>0.161285705271477</v>
       </c>
     </row>
     <row r="43">
@@ -1677,16 +1677,16 @@
         <v>51</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00724056700515079</v>
+        <v>0.00694031581859776</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0264470719138459</v>
+        <v>0.0264238986033745</v>
       </c>
       <c r="G43" t="n">
-        <v>0.273775752141398</v>
+        <v>0.26265298405707</v>
       </c>
       <c r="H43" t="n">
-        <v>0.78425695890763</v>
+        <v>0.792818057961279</v>
       </c>
     </row>
     <row r="44">
@@ -1701,16 +1701,16 @@
         <v>52</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0409025695808804</v>
+        <v>0.0414322737172012</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0384142791027602</v>
+        <v>0.0384124269846038</v>
       </c>
       <c r="G44" t="n">
-        <v>1.06477514445771</v>
+        <v>1.07861640020319</v>
       </c>
       <c r="H44" t="n">
-        <v>0.286977695547783</v>
+        <v>0.280758767216656</v>
       </c>
     </row>
     <row r="45">
@@ -1725,16 +1725,16 @@
         <v>53</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00892438135900583</v>
+        <v>0.00926005786108034</v>
       </c>
       <c r="F45" t="n">
-        <v>0.037730862346509</v>
+        <v>0.0377286540011146</v>
       </c>
       <c r="G45" t="n">
-        <v>0.236527362588402</v>
+        <v>0.245438330792474</v>
       </c>
       <c r="H45" t="n">
-        <v>0.813023477264159</v>
+        <v>0.806117052765327</v>
       </c>
     </row>
     <row r="46">
@@ -1749,16 +1749,16 @@
         <v>54</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.234345066458241</v>
+        <v>-0.25285411753107</v>
       </c>
       <c r="F46" t="n">
-        <v>0.256604359500217</v>
+        <v>0.257548564190926</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.913254423715446</v>
+        <v>-0.981772576855153</v>
       </c>
       <c r="H46" t="n">
-        <v>0.361108746504981</v>
+        <v>0.326211901064756</v>
       </c>
     </row>
     <row r="47">
@@ -1773,16 +1773,16 @@
         <v>55</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0654307503261293</v>
+        <v>0.0674323136398147</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0568488830522485</v>
+        <v>0.0568351512506355</v>
       </c>
       <c r="G47" t="n">
-        <v>1.15095929441557</v>
+        <v>1.18645437121205</v>
       </c>
       <c r="H47" t="n">
-        <v>0.249748982168414</v>
+        <v>0.235442910692182</v>
       </c>
     </row>
     <row r="48">
@@ -1797,16 +1797,16 @@
         <v>56</v>
       </c>
       <c r="E48" t="n">
-        <v>0.579819276182226</v>
+        <v>0.583654492548205</v>
       </c>
       <c r="F48" t="n">
-        <v>0.273746243133108</v>
+        <v>0.272955814413408</v>
       </c>
       <c r="G48" t="n">
-        <v>2.11809035092508</v>
+        <v>2.13827462808403</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0341674165634262</v>
+        <v>0.0324944605292401</v>
       </c>
     </row>
     <row r="49">
@@ -1821,16 +1821,16 @@
         <v>57</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0615809131135686</v>
+        <v>0.0555863278983332</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0495463169709077</v>
+        <v>0.0495352612817461</v>
       </c>
       <c r="G49" t="n">
-        <v>1.24289587760332</v>
+        <v>1.12215675177668</v>
       </c>
       <c r="H49" t="n">
-        <v>0.213906205003228</v>
+        <v>0.261795797422457</v>
       </c>
     </row>
     <row r="50">
@@ -1845,16 +1845,16 @@
         <v>58</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.299483682260636</v>
+        <v>-0.320032155946137</v>
       </c>
       <c r="F50" t="n">
-        <v>0.246106743731291</v>
+        <v>0.246953344988441</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.21688531455938</v>
+        <v>-1.29592152704438</v>
       </c>
       <c r="H50" t="n">
-        <v>0.223647853801431</v>
+        <v>0.195002521870349</v>
       </c>
     </row>
     <row r="51">
@@ -1869,16 +1869,16 @@
         <v>59</v>
       </c>
       <c r="E51" t="n">
-        <v>0.179695364451454</v>
+        <v>0.179726341927867</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0722809018243083</v>
+        <v>0.0722726179224842</v>
       </c>
       <c r="G51" t="n">
-        <v>2.48606976277408</v>
+        <v>2.48678333640318</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0129162642690188</v>
+        <v>0.0128903877517078</v>
       </c>
     </row>
     <row r="52">
@@ -1893,16 +1893,16 @@
         <v>60</v>
       </c>
       <c r="E52" t="n">
-        <v>0.739320176491058</v>
+        <v>0.740498051913502</v>
       </c>
       <c r="F52" t="n">
-        <v>0.271960059811283</v>
+        <v>0.271106770226452</v>
       </c>
       <c r="G52" t="n">
-        <v>2.71848806403441</v>
+        <v>2.73138900697675</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00655810218619847</v>
+        <v>0.00630679805662226</v>
       </c>
     </row>
     <row r="53">
@@ -1917,16 +1917,16 @@
         <v>61</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0274941619088067</v>
+        <v>-0.0300109982623508</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0633303866966463</v>
+        <v>0.063424759387115</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.434138544590044</v>
+        <v>-0.473174806689888</v>
       </c>
       <c r="H53" t="n">
-        <v>0.664187836973619</v>
+        <v>0.636088470114754</v>
       </c>
     </row>
     <row r="54">
@@ -1941,16 +1941,16 @@
         <v>62</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0378056637659622</v>
+        <v>-0.0568052487310422</v>
       </c>
       <c r="F54" t="n">
-        <v>0.323013881409391</v>
+        <v>0.322755097941567</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.117040368670865</v>
+        <v>-0.176001089040355</v>
       </c>
       <c r="H54" t="n">
-        <v>0.906828063723658</v>
+        <v>0.86029308687257</v>
       </c>
     </row>
     <row r="55">
@@ -1965,16 +1965,16 @@
         <v>63</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0511511020470217</v>
+        <v>-0.05254377657294</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0692810566078983</v>
+        <v>0.0692134947668904</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.738312961023611</v>
+        <v>-0.75915508601186</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4603242921755</v>
+        <v>0.447759789955197</v>
       </c>
     </row>
     <row r="56">
@@ -1989,16 +1989,16 @@
         <v>64</v>
       </c>
       <c r="E56" t="n">
-        <v>0.365160863777052</v>
+        <v>0.365018937564092</v>
       </c>
       <c r="F56" t="n">
-        <v>0.272366197870472</v>
+        <v>0.271504974379258</v>
       </c>
       <c r="G56" t="n">
-        <v>1.34069817265177</v>
+        <v>1.34442817631108</v>
       </c>
       <c r="H56" t="n">
-        <v>0.180018468103419</v>
+        <v>0.178809967538615</v>
       </c>
     </row>
     <row r="57">
@@ -2013,16 +2013,16 @@
         <v>65</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0974756913626521</v>
+        <v>-0.101255460744932</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0540929184224154</v>
+        <v>0.0541463868064447</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.80200466540662</v>
+        <v>-1.87003171803294</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0715446715448506</v>
+        <v>0.0614794134134291</v>
       </c>
     </row>
     <row r="58">
@@ -2037,16 +2037,16 @@
         <v>66</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.516867504138934</v>
+        <v>-0.510019299608075</v>
       </c>
       <c r="F58" t="n">
-        <v>0.288710266895389</v>
+        <v>0.287091376583443</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.79026367748194</v>
+        <v>-1.77650511721252</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0734115325502629</v>
+        <v>0.0756496992348719</v>
       </c>
     </row>
     <row r="59">
@@ -2061,16 +2061,16 @@
         <v>67</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0586569170282599</v>
+        <v>0.0572090518483768</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0735758159972407</v>
+        <v>0.0735169604228619</v>
       </c>
       <c r="G59" t="n">
-        <v>0.79723094108069</v>
+        <v>0.778174879909566</v>
       </c>
       <c r="H59" t="n">
-        <v>0.425316919393454</v>
+        <v>0.43646592365455</v>
       </c>
     </row>
     <row r="60">
@@ -2085,16 +2085,16 @@
         <v>68</v>
       </c>
       <c r="E60" t="n">
-        <v>0.577492912394408</v>
+        <v>0.574517519620053</v>
       </c>
       <c r="F60" t="n">
-        <v>0.312889067683626</v>
+        <v>0.311805637365065</v>
       </c>
       <c r="G60" t="n">
-        <v>1.84567941817109</v>
+        <v>1.84255013628058</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0649387674011699</v>
+        <v>0.0653947199754676</v>
       </c>
     </row>
     <row r="61">
@@ -2109,16 +2109,16 @@
         <v>69</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0517502256897034</v>
+        <v>-0.0565921806797834</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0647479880201258</v>
+        <v>0.0647996143043583</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.799256120107048</v>
+        <v>-0.873341319810558</v>
       </c>
       <c r="H61" t="n">
-        <v>0.424141916837332</v>
+        <v>0.382477065002944</v>
       </c>
     </row>
     <row r="62">
@@ -2133,16 +2133,16 @@
         <v>70</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.186248769810853</v>
+        <v>-0.187556303585457</v>
       </c>
       <c r="F62" t="n">
-        <v>0.253261957671006</v>
+        <v>0.252174670984508</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.735399708363603</v>
+        <v>-0.74375552014492</v>
       </c>
       <c r="H62" t="n">
-        <v>0.462096099417377</v>
+        <v>0.457024394056435</v>
       </c>
     </row>
     <row r="63">
@@ -2157,16 +2157,16 @@
         <v>71</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0700479703788724</v>
+        <v>0.0652715085292705</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0959615167295554</v>
+        <v>0.096015305084598</v>
       </c>
       <c r="G63" t="n">
-        <v>0.729958974869957</v>
+        <v>0.679803167544596</v>
       </c>
       <c r="H63" t="n">
-        <v>0.465415261785779</v>
+        <v>0.496629100766204</v>
       </c>
     </row>
     <row r="64">
@@ -2181,16 +2181,16 @@
         <v>72</v>
       </c>
       <c r="E64" t="n">
-        <v>0.806599793128083</v>
+        <v>0.798780322162118</v>
       </c>
       <c r="F64" t="n">
-        <v>0.308469351261077</v>
+        <v>0.307312046692887</v>
       </c>
       <c r="G64" t="n">
-        <v>2.61484581800611</v>
+        <v>2.59924832351392</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00892677419895602</v>
+        <v>0.0093428160096867</v>
       </c>
     </row>
     <row r="65">
@@ -2205,16 +2205,16 @@
         <v>73</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.101951245813412</v>
+        <v>-0.100927855773451</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0859424189109772</v>
+        <v>0.0859888398728105</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.18627386924049</v>
+        <v>-1.17373203223508</v>
       </c>
       <c r="H65" t="n">
-        <v>0.235514162517371</v>
+        <v>0.240502375637284</v>
       </c>
     </row>
     <row r="66">
@@ -2245,16 +2245,16 @@
         <v>75</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0297370047768173</v>
+        <v>0.0253691620419091</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0946513185093709</v>
+        <v>0.0945243492924702</v>
       </c>
       <c r="G67" t="n">
-        <v>0.314174226467571</v>
+        <v>0.268387587238646</v>
       </c>
       <c r="H67" t="n">
-        <v>0.753388716641805</v>
+        <v>0.788400993093409</v>
       </c>
     </row>
     <row r="68">
@@ -2269,16 +2269,16 @@
         <v>76</v>
       </c>
       <c r="E68" t="n">
-        <v>0.803825763576209</v>
+        <v>0.801633036780983</v>
       </c>
       <c r="F68" t="n">
-        <v>0.309868914135158</v>
+        <v>0.30860663077217</v>
       </c>
       <c r="G68" t="n">
-        <v>2.59408326201317</v>
+        <v>2.59758850539019</v>
       </c>
       <c r="H68" t="n">
-        <v>0.00948435152819885</v>
+        <v>0.00938809229944886</v>
       </c>
     </row>
     <row r="69">
@@ -2293,16 +2293,16 @@
         <v>77</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.117795045081302</v>
+        <v>-0.121572031380561</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0744712928938644</v>
+        <v>0.0745328441509328</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.58175104129295</v>
+        <v>-1.63112024994473</v>
       </c>
       <c r="H69" t="n">
-        <v>0.113706415621458</v>
+        <v>0.1028649486181</v>
       </c>
     </row>
     <row r="70">
@@ -2317,16 +2317,16 @@
         <v>78</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.132675550573017</v>
+        <v>-0.146310114369502</v>
       </c>
       <c r="F70" t="n">
-        <v>0.226057551105799</v>
+        <v>0.228386729509815</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.586910500994158</v>
+        <v>-0.640624412300691</v>
       </c>
       <c r="H70" t="n">
-        <v>0.557263816818723</v>
+        <v>0.521766734761728</v>
       </c>
     </row>
     <row r="71">
@@ -2341,16 +2341,16 @@
         <v>79</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0890038420703454</v>
+        <v>0.0931069249904914</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0566884679702718</v>
+        <v>0.0566745797731304</v>
       </c>
       <c r="G71" t="n">
-        <v>1.57005199217979</v>
+        <v>1.64283397183006</v>
       </c>
       <c r="H71" t="n">
-        <v>0.116403016047204</v>
+        <v>0.100417289306621</v>
       </c>
     </row>
     <row r="72">
@@ -2365,16 +2365,16 @@
         <v>80</v>
       </c>
       <c r="E72" t="n">
-        <v>0.684334376469086</v>
+        <v>0.68755291111457</v>
       </c>
       <c r="F72" t="n">
-        <v>0.276149787723636</v>
+        <v>0.275299527967184</v>
       </c>
       <c r="G72" t="n">
-        <v>2.47812747607089</v>
+        <v>2.49747217582053</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0132073948632663</v>
+        <v>0.0125082280811362</v>
       </c>
     </row>
     <row r="73">
@@ -2389,16 +2389,16 @@
         <v>81</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0545385385683907</v>
+        <v>0.0505284298662872</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0487319405597367</v>
+        <v>0.0487196282367279</v>
       </c>
       <c r="G73" t="n">
-        <v>1.11915384328962</v>
+        <v>1.03712675352879</v>
       </c>
       <c r="H73" t="n">
-        <v>0.263074512732946</v>
+        <v>0.299676788355487</v>
       </c>
     </row>
     <row r="74">
@@ -2413,16 +2413,16 @@
         <v>82</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.158602604221469</v>
+        <v>-0.177012435672811</v>
       </c>
       <c r="F74" t="n">
-        <v>0.217933206772381</v>
+        <v>0.220214052033502</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.72775786017374</v>
+        <v>-0.803819892682787</v>
       </c>
       <c r="H74" t="n">
-        <v>0.466761824446888</v>
+        <v>0.421500999455401</v>
       </c>
     </row>
     <row r="75">
@@ -2437,16 +2437,16 @@
         <v>83</v>
       </c>
       <c r="E75" t="n">
-        <v>0.150136541730839</v>
+        <v>0.152228218419241</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0726281850078912</v>
+        <v>0.0726189675501913</v>
       </c>
       <c r="G75" t="n">
-        <v>2.06719390983716</v>
+        <v>2.09625974527973</v>
       </c>
       <c r="H75" t="n">
-        <v>0.038715885845325</v>
+        <v>0.0360591555970327</v>
       </c>
     </row>
     <row r="76">
@@ -2461,16 +2461,16 @@
         <v>84</v>
       </c>
       <c r="E76" t="n">
-        <v>0.855821230821762</v>
+        <v>0.856070784507812</v>
       </c>
       <c r="F76" t="n">
-        <v>0.274582146151067</v>
+        <v>0.273669590849616</v>
       </c>
       <c r="G76" t="n">
-        <v>3.11681310244736</v>
+        <v>3.12811804135824</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00182817432582016</v>
+        <v>0.00175929510162247</v>
       </c>
     </row>
     <row r="77">
@@ -2485,16 +2485,16 @@
         <v>85</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0088389838914953</v>
+        <v>0.00791666659974643</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0635012416471094</v>
+        <v>0.0635945907655993</v>
       </c>
       <c r="G77" t="n">
-        <v>0.139193874989335</v>
+        <v>0.124486477614521</v>
       </c>
       <c r="H77" t="n">
-        <v>0.889296948438861</v>
+        <v>0.900930106396768</v>
       </c>
     </row>
     <row r="78">
@@ -2509,16 +2509,16 @@
         <v>86</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.167249623752333</v>
+        <v>-0.186442277782698</v>
       </c>
       <c r="F78" t="n">
-        <v>0.285574723685179</v>
+        <v>0.28660753519368</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.585659758658161</v>
+        <v>-0.650514222023879</v>
       </c>
       <c r="H78" t="n">
-        <v>0.558104181549307</v>
+        <v>0.515360118130418</v>
       </c>
     </row>
     <row r="79">
@@ -2533,16 +2533,16 @@
         <v>87</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0472741849383568</v>
+        <v>0.0479275835070492</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0685414014631215</v>
+        <v>0.0684722645693733</v>
       </c>
       <c r="G79" t="n">
-        <v>0.689717220967426</v>
+        <v>0.699956161936063</v>
       </c>
       <c r="H79" t="n">
-        <v>0.49037203405576</v>
+        <v>0.48395468208199</v>
       </c>
     </row>
     <row r="80">
@@ -2557,16 +2557,16 @@
         <v>88</v>
       </c>
       <c r="E80" t="n">
-        <v>0.661981902745047</v>
+        <v>0.661425438356052</v>
       </c>
       <c r="F80" t="n">
-        <v>0.275112617446556</v>
+        <v>0.27419286445584</v>
       </c>
       <c r="G80" t="n">
-        <v>2.4062215280753</v>
+        <v>2.41226349806261</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0161184873151593</v>
+        <v>0.0158538192103429</v>
       </c>
     </row>
     <row r="81">
@@ -2581,16 +2581,16 @@
         <v>89</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0190251507505002</v>
+        <v>-0.0208703317140504</v>
       </c>
       <c r="F81" t="n">
-        <v>0.053123537021664</v>
+        <v>0.0531771221609982</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.358130347057682</v>
+        <v>-0.392468243220528</v>
       </c>
       <c r="H81" t="n">
-        <v>0.720245769516995</v>
+        <v>0.694712271259596</v>
       </c>
     </row>
     <row r="82">
@@ -2607,7 +2607,7 @@
         <v>92</v>
       </c>
       <c r="E82" t="n">
-        <v>0.118532052672377</v>
+        <v>0.118905616232327</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
@@ -2627,7 +2627,7 @@
         <v>94</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0675431136539799</v>
+        <v>0.0672246506714656</v>
       </c>
       <c r="F83"/>
       <c r="G83"/>
@@ -2647,7 +2647,7 @@
         <v>95</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0675431136539799</v>
+        <v>0.0672246506714656</v>
       </c>
       <c r="F84"/>
       <c r="G84"/>
@@ -2667,7 +2667,7 @@
         <v>96</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0675431136539799</v>
+        <v>0.0672246506714656</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
@@ -2687,7 +2687,7 @@
         <v>97</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0675431136539799</v>
+        <v>0.0672246506714656</v>
       </c>
       <c r="F86"/>
       <c r="G86"/>
@@ -2707,7 +2707,7 @@
         <v>98</v>
       </c>
       <c r="E87" t="n">
-        <v>0.114866130744204</v>
+        <v>0.118467474083154</v>
       </c>
       <c r="F87"/>
       <c r="G87"/>
@@ -2727,7 +2727,7 @@
         <v>99</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0131942279921445</v>
+        <v>0.0140345424156427</v>
       </c>
       <c r="F88"/>
       <c r="G88"/>
@@ -2747,7 +2747,7 @@
         <v>100</v>
       </c>
       <c r="E89" t="n">
-        <v>0.00151556991761451</v>
+        <v>0.00166263678989407</v>
       </c>
       <c r="F89"/>
       <c r="G89"/>
@@ -2767,7 +2767,7 @@
         <v>101</v>
       </c>
       <c r="E90" t="n">
-        <v>0.114866130744204</v>
+        <v>0.118467474083154</v>
       </c>
       <c r="F90"/>
       <c r="G90"/>
@@ -2787,7 +2787,7 @@
         <v>102</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0131942279921445</v>
+        <v>0.0140345424156427</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
@@ -2807,7 +2807,7 @@
         <v>103</v>
       </c>
       <c r="E92" t="n">
-        <v>0.114866130744204</v>
+        <v>0.118467474083154</v>
       </c>
       <c r="F92"/>
       <c r="G92"/>

--- a/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">effect</t>
   </si>
@@ -291,39 +291,6 @@
   </si>
   <si>
     <t xml:space="preserve">sd__(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal_id.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd__seasonFall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd__seasonWinter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd__seasonSpring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd__seasonSummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__seasonFall.seasonWinter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__seasonFall.seasonSpring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__seasonFall.seasonSummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__seasonWinter.seasonSpring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__seasonWinter.seasonSummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__seasonSpring.seasonSummer</t>
   </si>
 </sst>
 </file>
@@ -693,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.82731324068737</v>
+        <v>-1.82958666343958</v>
       </c>
       <c r="F2" t="n">
-        <v>0.039903947288413</v>
+        <v>0.0353490412064622</v>
       </c>
       <c r="G2" t="n">
-        <v>-45.7927940682192</v>
+        <v>-51.757745075844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -717,16 +684,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0779963724489271</v>
+        <v>0.14798259816539</v>
       </c>
       <c r="F3" t="n">
-        <v>0.180054362663429</v>
+        <v>0.183539251720133</v>
       </c>
       <c r="G3" t="n">
-        <v>0.43318235279155</v>
+        <v>0.806272210322832</v>
       </c>
       <c r="H3" t="n">
-        <v>0.664882298277725</v>
+        <v>0.420085910295573</v>
       </c>
     </row>
     <row r="4">
@@ -741,16 +708,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0225378479621606</v>
+        <v>0.0067473837056031</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0433351903628014</v>
+        <v>0.0428336452396018</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.520081895878942</v>
+        <v>0.15752532075801</v>
       </c>
       <c r="H4" t="n">
-        <v>0.603006496108109</v>
+        <v>0.874830853925021</v>
       </c>
     </row>
     <row r="5">
@@ -765,16 +732,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.745579313604499</v>
+        <v>0.779231371574032</v>
       </c>
       <c r="F5" t="n">
-        <v>0.256438579979774</v>
+        <v>0.253646555005227</v>
       </c>
       <c r="G5" t="n">
-        <v>2.90743816185266</v>
+        <v>3.07211494182514</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00364402383562506</v>
+        <v>0.00212547863054266</v>
       </c>
     </row>
     <row r="6">
@@ -789,16 +756,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0598098864761239</v>
+        <v>0.0508398507941526</v>
       </c>
       <c r="F6" t="n">
-        <v>0.037831983888209</v>
+        <v>0.0377311858641215</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58093444564943</v>
+        <v>1.34742255324914</v>
       </c>
       <c r="H6" t="n">
-        <v>0.113893027379202</v>
+        <v>0.17784418097455</v>
       </c>
     </row>
     <row r="7">
@@ -813,16 +780,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0823688123144643</v>
+        <v>-0.0494435007468305</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03514950957136</v>
+        <v>0.0253107681958522</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.34338439764687</v>
+        <v>-1.95345713588152</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0191096832388107</v>
+        <v>0.0507654516641872</v>
       </c>
     </row>
     <row r="8">
@@ -837,16 +804,16 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0530550054686098</v>
+        <v>0.0269324699716841</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0455469869415665</v>
+        <v>0.0368377989573956</v>
       </c>
       <c r="G8" t="n">
-        <v>1.16484116801569</v>
+        <v>0.731109641019339</v>
       </c>
       <c r="H8" t="n">
-        <v>0.244083291293447</v>
+        <v>0.464712185958739</v>
       </c>
     </row>
     <row r="9">
@@ -861,16 +828,16 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0548003290266924</v>
+        <v>0.0586438786983845</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0445607890135676</v>
+        <v>0.0359479763407847</v>
       </c>
       <c r="G9" t="n">
-        <v>1.22978812179486</v>
+        <v>1.6313541030083</v>
       </c>
       <c r="H9" t="n">
-        <v>0.218776457399063</v>
+        <v>0.102815623459227</v>
       </c>
     </row>
     <row r="10">
@@ -885,16 +852,16 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0123827372868232</v>
+        <v>0.0150875548001833</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0226134248528352</v>
+        <v>0.0226845311240007</v>
       </c>
       <c r="G10" t="n">
-        <v>0.547583453961893</v>
+        <v>0.665103224647229</v>
       </c>
       <c r="H10" t="n">
-        <v>0.583977953156411</v>
+        <v>0.505984472299242</v>
       </c>
     </row>
     <row r="11">
@@ -909,16 +876,16 @@
         <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0948390375536955</v>
+        <v>0.0847802479361467</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0302581075749186</v>
+        <v>0.0304301698699011</v>
       </c>
       <c r="G11" t="n">
-        <v>3.13433473388498</v>
+        <v>2.78605897694984</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00172244247937119</v>
+        <v>0.00533531636155563</v>
       </c>
     </row>
     <row r="12">
@@ -933,16 +900,16 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.13140245069284</v>
+        <v>-0.125923262455898</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0223055595849113</v>
+        <v>0.0223826877129023</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.89101789590285</v>
+        <v>-5.62592232314041</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00000000383823981278531</v>
+        <v>0.0000000184519370160125</v>
       </c>
     </row>
     <row r="13">
@@ -957,16 +924,16 @@
         <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>0.174293648402525</v>
+        <v>0.0956058409343752</v>
       </c>
       <c r="F13" t="n">
-        <v>0.210129635996268</v>
+        <v>0.212600768530514</v>
       </c>
       <c r="G13" t="n">
-        <v>0.829457718213627</v>
+        <v>0.449696591386749</v>
       </c>
       <c r="H13" t="n">
-        <v>0.406845452788334</v>
+        <v>0.652929229479633</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +948,16 @@
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00802906622551922</v>
+        <v>-0.0497018743278259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0545097750916182</v>
+        <v>0.0538796150737326</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.147295897149167</v>
+        <v>-0.922461570295379</v>
       </c>
       <c r="H14" t="n">
-        <v>0.882898470758963</v>
+        <v>0.356287866793132</v>
       </c>
     </row>
     <row r="15">
@@ -1005,16 +972,16 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.596558659496284</v>
+        <v>-0.604206199242694</v>
       </c>
       <c r="F15" t="n">
-        <v>0.263276469650708</v>
+        <v>0.260364650911112</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.26590192540847</v>
+        <v>-2.32061532596055</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0234573887131158</v>
+        <v>0.0203076142919525</v>
       </c>
     </row>
     <row r="16">
@@ -1029,16 +996,16 @@
         <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0828838425512359</v>
+        <v>-0.0740840800291394</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0470206038016445</v>
+        <v>0.0467034208288452</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.76271327567123</v>
+        <v>-1.58626667414013</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0779488605510744</v>
+        <v>0.112678828718007</v>
       </c>
     </row>
     <row r="17">
@@ -1053,16 +1020,16 @@
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.288980549515679</v>
+        <v>0.293396047693272</v>
       </c>
       <c r="F17" t="n">
-        <v>0.202163826769512</v>
+        <v>0.204634407013718</v>
       </c>
       <c r="G17" t="n">
-        <v>1.42943747223952</v>
+        <v>1.43375716711024</v>
       </c>
       <c r="H17" t="n">
-        <v>0.152878534605854</v>
+        <v>0.151641572092534</v>
       </c>
     </row>
     <row r="18">
@@ -1077,16 +1044,16 @@
         <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0665869723571793</v>
+        <v>-0.0598900035319574</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0698147435721273</v>
+        <v>0.0685959376523756</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.953766625073782</v>
+        <v>-0.873083823643649</v>
       </c>
       <c r="H18" t="n">
-        <v>0.340201786856221</v>
+        <v>0.382617390314797</v>
       </c>
     </row>
     <row r="19">
@@ -1101,16 +1068,16 @@
         <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.919939963669383</v>
+        <v>-0.992759898467075</v>
       </c>
       <c r="F19" t="n">
-        <v>0.262005856646671</v>
+        <v>0.258839353002161</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.51114274865227</v>
+        <v>-3.83542875900631</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000446184734336681</v>
+        <v>0.000125345436177656</v>
       </c>
     </row>
     <row r="20">
@@ -1125,16 +1092,16 @@
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>0.104071551141287</v>
+        <v>0.163739470069911</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0607096068314138</v>
+        <v>0.0609245637196636</v>
       </c>
       <c r="G20" t="n">
-        <v>1.71425177287487</v>
+        <v>2.68757722785406</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0864824961757624</v>
+        <v>0.00719724570856946</v>
       </c>
     </row>
     <row r="21">
@@ -1149,16 +1116,16 @@
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>0.389674039842072</v>
+        <v>0.360790124788675</v>
       </c>
       <c r="F21" t="n">
-        <v>0.272274849932153</v>
+        <v>0.262839052748353</v>
       </c>
       <c r="G21" t="n">
-        <v>1.43117897205406</v>
+        <v>1.37266559522303</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15237892852099</v>
+        <v>0.169856329538468</v>
       </c>
     </row>
     <row r="22">
@@ -1173,16 +1140,16 @@
         <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>0.106381196877377</v>
+        <v>0.0379485384244285</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0667059494108342</v>
+        <v>0.0648262248578347</v>
       </c>
       <c r="G22" t="n">
-        <v>1.5947782441741</v>
+        <v>0.585388683478801</v>
       </c>
       <c r="H22" t="n">
-        <v>0.110761833754178</v>
+        <v>0.558286396226256</v>
       </c>
     </row>
     <row r="23">
@@ -1197,16 +1164,16 @@
         <v>31</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.673927547099514</v>
+        <v>-0.743704820553769</v>
       </c>
       <c r="F23" t="n">
-        <v>0.262181468581317</v>
+        <v>0.258975661148473</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.57046217166372</v>
+        <v>-2.87171704574739</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0101562918114042</v>
+        <v>0.00408248325473775</v>
       </c>
     </row>
     <row r="24">
@@ -1221,16 +1188,16 @@
         <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0123491091355587</v>
+        <v>0.00960905261866274</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0513713330561126</v>
+        <v>0.0507156723518069</v>
       </c>
       <c r="G24" t="n">
-        <v>0.240389111998901</v>
+        <v>0.18946909649558</v>
       </c>
       <c r="H24" t="n">
-        <v>0.81002861814494</v>
+        <v>0.849725173820309</v>
       </c>
     </row>
     <row r="25">
@@ -1245,16 +1212,16 @@
         <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>0.130781983810135</v>
+        <v>0.122598454081093</v>
       </c>
       <c r="F25" t="n">
-        <v>0.226952412216596</v>
+        <v>0.23319012805072</v>
       </c>
       <c r="G25" t="n">
-        <v>0.576252891664888</v>
+        <v>0.525744614945394</v>
       </c>
       <c r="H25" t="n">
-        <v>0.564444259304627</v>
+        <v>0.599065660762274</v>
       </c>
     </row>
     <row r="26">
@@ -1269,16 +1236,16 @@
         <v>34</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0369938367936655</v>
+        <v>-0.0305889369287724</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0453423074568854</v>
+        <v>0.0454605962217586</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.815879007234948</v>
+        <v>-0.672867042472525</v>
       </c>
       <c r="H26" t="n">
-        <v>0.414569339857998</v>
+        <v>0.501031881138791</v>
       </c>
     </row>
     <row r="27">
@@ -1293,16 +1260,16 @@
         <v>35</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.61857017540774</v>
+        <v>-0.570964856066883</v>
       </c>
       <c r="F27" t="n">
-        <v>0.265848128091659</v>
+        <v>0.26298674926175</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.32678025550915</v>
+        <v>-2.17107841999523</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0199769638036071</v>
+        <v>0.0299252449996165</v>
       </c>
     </row>
     <row r="28">
@@ -1317,16 +1284,16 @@
         <v>36</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0523151009279818</v>
+        <v>-0.0562253022150751</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0401459516186041</v>
+        <v>0.0402823342284009</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.30312270151141</v>
+        <v>-1.39578063913272</v>
       </c>
       <c r="H28" t="n">
-        <v>0.192532874424587</v>
+        <v>0.162780562317953</v>
       </c>
     </row>
     <row r="29">
@@ -1341,16 +1308,16 @@
         <v>37</v>
       </c>
       <c r="E29" t="n">
-        <v>0.29979967226486</v>
+        <v>0.28176112443158</v>
       </c>
       <c r="F29" t="n">
-        <v>0.223237346102058</v>
+        <v>0.207918650852596</v>
       </c>
       <c r="G29" t="n">
-        <v>1.34296378943602</v>
+        <v>1.35515079227469</v>
       </c>
       <c r="H29" t="n">
-        <v>0.179283699268452</v>
+        <v>0.175369518796247</v>
       </c>
     </row>
     <row r="30">
@@ -1365,16 +1332,16 @@
         <v>38</v>
       </c>
       <c r="E30" t="n">
-        <v>0.123583803016527</v>
+        <v>0.139418126739049</v>
       </c>
       <c r="F30" t="n">
-        <v>0.060347508475179</v>
+        <v>0.0604692439065695</v>
       </c>
       <c r="G30" t="n">
-        <v>2.04786918530957</v>
+        <v>2.30560393568774</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0405728189599048</v>
+        <v>0.0211327731768321</v>
       </c>
     </row>
     <row r="31">
@@ -1389,16 +1356,16 @@
         <v>39</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.686891240320329</v>
+        <v>-0.651795641241281</v>
       </c>
       <c r="F31" t="n">
-        <v>0.298645646747271</v>
+        <v>0.296769383305434</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.3000209371932</v>
+        <v>-2.19630352019991</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0214470338945875</v>
+        <v>0.0280702259461882</v>
       </c>
     </row>
     <row r="32">
@@ -1413,16 +1380,16 @@
         <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0459186129892878</v>
+        <v>0.0594297148253702</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0536370312771201</v>
+        <v>0.0538840639267048</v>
       </c>
       <c r="G32" t="n">
-        <v>0.85609907737148</v>
+        <v>1.1029182005687</v>
       </c>
       <c r="H32" t="n">
-        <v>0.391942978945491</v>
+        <v>0.270062689544172</v>
       </c>
     </row>
     <row r="33">
@@ -1437,16 +1404,16 @@
         <v>41</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0442936182105515</v>
+        <v>0.049648714065357</v>
       </c>
       <c r="F33" t="n">
-        <v>0.197990522875533</v>
+        <v>0.201732150077356</v>
       </c>
       <c r="G33" t="n">
-        <v>0.223715850472281</v>
+        <v>0.246112055249095</v>
       </c>
       <c r="H33" t="n">
-        <v>0.822978411630715</v>
+        <v>0.805595491307287</v>
       </c>
     </row>
     <row r="34">
@@ -1461,16 +1428,16 @@
         <v>42</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0727716150393654</v>
+        <v>-0.0821391071271029</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0451092505168101</v>
+        <v>0.0451990432110139</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.6132304173896</v>
+        <v>-1.81727535124212</v>
       </c>
       <c r="H34" t="n">
-        <v>0.106694457378029</v>
+        <v>0.0691749622147985</v>
       </c>
     </row>
     <row r="35">
@@ -1485,16 +1452,16 @@
         <v>43</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.759613956587213</v>
+        <v>-0.709855134600413</v>
       </c>
       <c r="F35" t="n">
-        <v>0.268221989268713</v>
+        <v>0.265241516797662</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.8320346093109</v>
+        <v>-2.67625952064632</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00462528420764494</v>
+        <v>0.00744489718049898</v>
       </c>
     </row>
     <row r="36">
@@ -1509,16 +1476,16 @@
         <v>44</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0182622007933915</v>
+        <v>-0.0107235187642509</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0393165043991349</v>
+        <v>0.0394225543576618</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.464491975380023</v>
+        <v>-0.272014813321368</v>
       </c>
       <c r="H36" t="n">
-        <v>0.642295307481501</v>
+        <v>0.785610629279791</v>
       </c>
     </row>
     <row r="37">
@@ -1533,16 +1500,16 @@
         <v>45</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0354263749783836</v>
+        <v>-0.0375357041319093</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0267241140615088</v>
+        <v>0.0267690236048724</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.32563327999744</v>
+        <v>-1.40220669554332</v>
       </c>
       <c r="H37" t="n">
-        <v>0.184961197153787</v>
+        <v>0.160853532828149</v>
       </c>
     </row>
     <row r="38">
@@ -1557,16 +1524,16 @@
         <v>46</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0728951385790886</v>
+        <v>-0.0395268760045194</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0380178258022943</v>
+        <v>0.0384842876920758</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.91739367101549</v>
+        <v>-1.02709127217803</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0551879376798068</v>
+        <v>0.304377488019071</v>
       </c>
     </row>
     <row r="39">
@@ -1581,16 +1548,16 @@
         <v>47</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0690617711055569</v>
+        <v>0.0392668657785028</v>
       </c>
       <c r="F39" t="n">
-        <v>0.038443302200867</v>
+        <v>0.0384841667654011</v>
       </c>
       <c r="G39" t="n">
-        <v>1.7964578262478</v>
+        <v>1.02033820864235</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0724217342601719</v>
+        <v>0.307568088261091</v>
       </c>
     </row>
     <row r="40">
@@ -1605,16 +1572,16 @@
         <v>48</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.00625300877339365</v>
+        <v>0.00710979050275774</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0351400631455059</v>
+        <v>0.0352615275933371</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.177945291318959</v>
+        <v>0.201630246560877</v>
       </c>
       <c r="H40" t="n">
-        <v>0.858765941087597</v>
+        <v>0.840205797504941</v>
       </c>
     </row>
     <row r="41">
@@ -1629,16 +1596,16 @@
         <v>49</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0609864151680338</v>
+        <v>-0.0374210608849947</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0507951623263886</v>
+        <v>0.0515041723196673</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.20063431978346</v>
+        <v>-0.726563678234378</v>
       </c>
       <c r="H41" t="n">
-        <v>0.22989308208306</v>
+        <v>0.467493285434933</v>
       </c>
     </row>
     <row r="42">
@@ -1653,16 +1620,16 @@
         <v>50</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.0748403180242149</v>
+        <v>-0.071288533576721</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0534283471117874</v>
+        <v>0.053754390372714</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.40076049643886</v>
+        <v>-1.3261899741106</v>
       </c>
       <c r="H42" t="n">
-        <v>0.161285705271477</v>
+        <v>0.184776779368423</v>
       </c>
     </row>
     <row r="43">
@@ -1677,16 +1644,16 @@
         <v>51</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00694031581859776</v>
+        <v>-0.00116699013670652</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0264238986033745</v>
+        <v>0.0264734850079641</v>
       </c>
       <c r="G43" t="n">
-        <v>0.26265298405707</v>
+        <v>-0.0440814700578884</v>
       </c>
       <c r="H43" t="n">
-        <v>0.792818057961279</v>
+        <v>0.964839463177149</v>
       </c>
     </row>
     <row r="44">
@@ -1701,16 +1668,16 @@
         <v>52</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0414322737172012</v>
+        <v>0.0751498219962275</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0384124269846038</v>
+        <v>0.0389182528739148</v>
       </c>
       <c r="G44" t="n">
-        <v>1.07861640020319</v>
+        <v>1.93096597218004</v>
       </c>
       <c r="H44" t="n">
-        <v>0.280758767216656</v>
+        <v>0.0534872606353803</v>
       </c>
     </row>
     <row r="45">
@@ -1725,16 +1692,16 @@
         <v>53</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00926005786108034</v>
+        <v>-0.00242770444859141</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0377286540011146</v>
+        <v>0.0377728865855847</v>
       </c>
       <c r="G45" t="n">
-        <v>0.245438330792474</v>
+        <v>-0.0642710861689318</v>
       </c>
       <c r="H45" t="n">
-        <v>0.806117052765327</v>
+        <v>0.948754375735482</v>
       </c>
     </row>
     <row r="46">
@@ -1749,16 +1716,16 @@
         <v>54</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.25285411753107</v>
+        <v>-0.247554537569493</v>
       </c>
       <c r="F46" t="n">
-        <v>0.257548564190926</v>
+        <v>0.262797700684978</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.981772576855153</v>
+        <v>-0.941996588722984</v>
       </c>
       <c r="H46" t="n">
-        <v>0.326211901064756</v>
+        <v>0.346194386412606</v>
       </c>
     </row>
     <row r="47">
@@ -1773,16 +1740,16 @@
         <v>55</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0674323136398147</v>
+        <v>0.0632363052756441</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0568351512506355</v>
+        <v>0.0569360629680677</v>
       </c>
       <c r="G47" t="n">
-        <v>1.18645437121205</v>
+        <v>1.11065468841971</v>
       </c>
       <c r="H47" t="n">
-        <v>0.235442910692182</v>
+        <v>0.266717013061332</v>
       </c>
     </row>
     <row r="48">
@@ -1797,16 +1764,16 @@
         <v>56</v>
       </c>
       <c r="E48" t="n">
-        <v>0.583654492548205</v>
+        <v>0.526569803522911</v>
       </c>
       <c r="F48" t="n">
-        <v>0.272955814413408</v>
+        <v>0.270175236054214</v>
       </c>
       <c r="G48" t="n">
-        <v>2.13827462808403</v>
+        <v>1.94899359102345</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0324944605292401</v>
+        <v>0.0512961900983394</v>
       </c>
     </row>
     <row r="49">
@@ -1821,16 +1788,16 @@
         <v>57</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0555863278983332</v>
+        <v>0.061050648551132</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0495352612817461</v>
+        <v>0.0496247501161957</v>
       </c>
       <c r="G49" t="n">
-        <v>1.12215675177668</v>
+        <v>1.23024596412441</v>
       </c>
       <c r="H49" t="n">
-        <v>0.261795797422457</v>
+        <v>0.218605012392274</v>
       </c>
     </row>
     <row r="50">
@@ -1845,16 +1812,16 @@
         <v>58</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.320032155946137</v>
+        <v>-0.357772551510803</v>
       </c>
       <c r="F50" t="n">
-        <v>0.246953344988441</v>
+        <v>0.252519754763098</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.29592152704438</v>
+        <v>-1.41681014955225</v>
       </c>
       <c r="H50" t="n">
-        <v>0.195002521870349</v>
+        <v>0.156538441476267</v>
       </c>
     </row>
     <row r="51">
@@ -1869,16 +1836,16 @@
         <v>59</v>
       </c>
       <c r="E51" t="n">
-        <v>0.179726341927867</v>
+        <v>0.126941646339557</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0722726179224842</v>
+        <v>0.0723176057460313</v>
       </c>
       <c r="G51" t="n">
-        <v>2.48678333640318</v>
+        <v>1.75533530224102</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0128903877517078</v>
+        <v>0.0792019714397</v>
       </c>
     </row>
     <row r="52">
@@ -1893,16 +1860,16 @@
         <v>60</v>
       </c>
       <c r="E52" t="n">
-        <v>0.740498051913502</v>
+        <v>0.667666066568406</v>
       </c>
       <c r="F52" t="n">
-        <v>0.271106770226452</v>
+        <v>0.268431257417184</v>
       </c>
       <c r="G52" t="n">
-        <v>2.73138900697675</v>
+        <v>2.48728882393434</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00630679805662226</v>
+        <v>0.0128720848823632</v>
       </c>
     </row>
     <row r="53">
@@ -1917,16 +1884,16 @@
         <v>61</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0300109982623508</v>
+        <v>-0.0248552714642866</v>
       </c>
       <c r="F53" t="n">
-        <v>0.063424759387115</v>
+        <v>0.0642012194884891</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.473174806689888</v>
+        <v>-0.387146407222732</v>
       </c>
       <c r="H53" t="n">
-        <v>0.636088470114754</v>
+        <v>0.698647823164355</v>
       </c>
     </row>
     <row r="54">
@@ -1941,16 +1908,16 @@
         <v>62</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0568052487310422</v>
+        <v>-0.0616560267215445</v>
       </c>
       <c r="F54" t="n">
-        <v>0.322755097941567</v>
+        <v>0.317845368590554</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.176001089040355</v>
+        <v>-0.193981202227204</v>
       </c>
       <c r="H54" t="n">
-        <v>0.86029308687257</v>
+        <v>0.846190600780834</v>
       </c>
     </row>
     <row r="55">
@@ -1965,16 +1932,16 @@
         <v>63</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.05254377657294</v>
+        <v>-0.0206409886168359</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0692134947668904</v>
+        <v>0.0691285490432694</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.75915508601186</v>
+        <v>-0.298588483376328</v>
       </c>
       <c r="H55" t="n">
-        <v>0.447759789955197</v>
+        <v>0.765254053740559</v>
       </c>
     </row>
     <row r="56">
@@ -1989,16 +1956,16 @@
         <v>64</v>
       </c>
       <c r="E56" t="n">
-        <v>0.365018937564092</v>
+        <v>0.348238525950435</v>
       </c>
       <c r="F56" t="n">
-        <v>0.271504974379258</v>
+        <v>0.268732084618706</v>
       </c>
       <c r="G56" t="n">
-        <v>1.34442817631108</v>
+        <v>1.29585764366223</v>
       </c>
       <c r="H56" t="n">
-        <v>0.178809967538615</v>
+        <v>0.195024534205964</v>
       </c>
     </row>
     <row r="57">
@@ -2013,16 +1980,16 @@
         <v>65</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.101255460744932</v>
+        <v>-0.0647317093407376</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0541463868064447</v>
+        <v>0.0542524182998294</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.87003171803294</v>
+        <v>-1.19315804473441</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0614794134134291</v>
+        <v>0.232807482468774</v>
       </c>
     </row>
     <row r="58">
@@ -2037,16 +2004,16 @@
         <v>66</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.510019299608075</v>
+        <v>-0.483774404894997</v>
       </c>
       <c r="F58" t="n">
-        <v>0.287091376583443</v>
+        <v>0.272757696321465</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.77650511721252</v>
+        <v>-1.77364162925336</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0756496992348719</v>
+        <v>0.0761224471837897</v>
       </c>
     </row>
     <row r="59">
@@ -2061,16 +2028,16 @@
         <v>67</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0572090518483768</v>
+        <v>0.0392637327469828</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0735169604228619</v>
+        <v>0.0736205244449498</v>
       </c>
       <c r="G59" t="n">
-        <v>0.778174879909566</v>
+        <v>0.533325903924286</v>
       </c>
       <c r="H59" t="n">
-        <v>0.43646592365455</v>
+        <v>0.593807999169739</v>
       </c>
     </row>
     <row r="60">
@@ -2085,16 +2052,16 @@
         <v>68</v>
       </c>
       <c r="E60" t="n">
-        <v>0.574517519620053</v>
+        <v>0.530403921627516</v>
       </c>
       <c r="F60" t="n">
-        <v>0.311805637365065</v>
+        <v>0.310010041631902</v>
       </c>
       <c r="G60" t="n">
-        <v>1.84255013628058</v>
+        <v>1.71092497144755</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0653947199754676</v>
+        <v>0.08709496415456</v>
       </c>
     </row>
     <row r="61">
@@ -2109,16 +2076,16 @@
         <v>69</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0565921806797834</v>
+        <v>-0.0731112200284432</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0647996143043583</v>
+        <v>0.0649710207061998</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.873341319810558</v>
+        <v>-1.12528969429391</v>
       </c>
       <c r="H61" t="n">
-        <v>0.382477065002944</v>
+        <v>0.260466295366509</v>
       </c>
     </row>
     <row r="62">
@@ -2133,16 +2100,16 @@
         <v>70</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.187556303585457</v>
+        <v>-0.160471669949967</v>
       </c>
       <c r="F62" t="n">
-        <v>0.252174670984508</v>
+        <v>0.238126173759586</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.74375552014492</v>
+        <v>-0.673893454954602</v>
       </c>
       <c r="H62" t="n">
-        <v>0.457024394056435</v>
+        <v>0.500379053515439</v>
       </c>
     </row>
     <row r="63">
@@ -2157,16 +2124,16 @@
         <v>71</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0652715085292705</v>
+        <v>0.0188907200759408</v>
       </c>
       <c r="F63" t="n">
-        <v>0.096015305084598</v>
+        <v>0.096212711546928</v>
       </c>
       <c r="G63" t="n">
-        <v>0.679803167544596</v>
+        <v>0.196343287411943</v>
       </c>
       <c r="H63" t="n">
-        <v>0.496629100766204</v>
+        <v>0.844341482252037</v>
       </c>
     </row>
     <row r="64">
@@ -2181,16 +2148,16 @@
         <v>72</v>
       </c>
       <c r="E64" t="n">
-        <v>0.798780322162118</v>
+        <v>0.721270439114486</v>
       </c>
       <c r="F64" t="n">
-        <v>0.307312046692887</v>
+        <v>0.305786034222764</v>
       </c>
       <c r="G64" t="n">
-        <v>2.59924832351392</v>
+        <v>2.3587422523981</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0093428160096867</v>
+        <v>0.0183369869328401</v>
       </c>
     </row>
     <row r="65">
@@ -2205,16 +2172,16 @@
         <v>73</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.100927855773451</v>
+        <v>-0.0785310103475873</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0859888398728105</v>
+        <v>0.0868992853624229</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.17373203223508</v>
+        <v>-0.903701451859646</v>
       </c>
       <c r="H65" t="n">
-        <v>0.240502375637284</v>
+        <v>0.366153729063557</v>
       </c>
     </row>
     <row r="66">
@@ -2245,16 +2212,16 @@
         <v>75</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0253691620419091</v>
+        <v>0.0202637683506314</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0945243492924702</v>
+        <v>0.0949062848033139</v>
       </c>
       <c r="G67" t="n">
-        <v>0.268387587238646</v>
+        <v>0.21351345058577</v>
       </c>
       <c r="H67" t="n">
-        <v>0.788400993093409</v>
+        <v>0.830926498946361</v>
       </c>
     </row>
     <row r="68">
@@ -2269,16 +2236,16 @@
         <v>76</v>
       </c>
       <c r="E68" t="n">
-        <v>0.801633036780983</v>
+        <v>0.757661746231008</v>
       </c>
       <c r="F68" t="n">
-        <v>0.30860663077217</v>
+        <v>0.306862062141944</v>
       </c>
       <c r="G68" t="n">
-        <v>2.59758850539019</v>
+        <v>2.46906294294711</v>
       </c>
       <c r="H68" t="n">
-        <v>0.00938809229944886</v>
+        <v>0.0135467388013958</v>
       </c>
     </row>
     <row r="69">
@@ -2293,16 +2260,16 @@
         <v>77</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.121572031380561</v>
+        <v>-0.122963629728301</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0745328441509328</v>
+        <v>0.0749151475177226</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.63112024994473</v>
+        <v>-1.64137205628823</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1028649486181</v>
+        <v>0.100720206813449</v>
       </c>
     </row>
     <row r="70">
@@ -2317,16 +2284,16 @@
         <v>78</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.146310114369502</v>
+        <v>-0.153425861498418</v>
       </c>
       <c r="F70" t="n">
-        <v>0.228386729509815</v>
+        <v>0.231377140886128</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.640624412300691</v>
+        <v>-0.663098614283277</v>
       </c>
       <c r="H70" t="n">
-        <v>0.521766734761728</v>
+        <v>0.507267398095482</v>
       </c>
     </row>
     <row r="71">
@@ -2341,16 +2308,16 @@
         <v>79</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0931069249904914</v>
+        <v>0.104888209359142</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0566745797731304</v>
+        <v>0.0567515020447037</v>
       </c>
       <c r="G71" t="n">
-        <v>1.64283397183006</v>
+        <v>1.84820146745226</v>
       </c>
       <c r="H71" t="n">
-        <v>0.100417289306621</v>
+        <v>0.0645732032267465</v>
       </c>
     </row>
     <row r="72">
@@ -2365,16 +2332,16 @@
         <v>80</v>
       </c>
       <c r="E72" t="n">
-        <v>0.68755291111457</v>
+        <v>0.624230513373624</v>
       </c>
       <c r="F72" t="n">
-        <v>0.275299527967184</v>
+        <v>0.272423763993816</v>
       </c>
       <c r="G72" t="n">
-        <v>2.49747217582053</v>
+        <v>2.29139523007175</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0125082280811362</v>
+        <v>0.0219405652070481</v>
       </c>
     </row>
     <row r="73">
@@ -2389,16 +2356,16 @@
         <v>81</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0505284298662872</v>
+        <v>0.0419978868193393</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0487196282367279</v>
+        <v>0.0487924341680854</v>
       </c>
       <c r="G73" t="n">
-        <v>1.03712675352879</v>
+        <v>0.860745882746092</v>
       </c>
       <c r="H73" t="n">
-        <v>0.299676788355487</v>
+        <v>0.389378016593876</v>
       </c>
     </row>
     <row r="74">
@@ -2413,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.177012435672811</v>
+        <v>-0.219456684254795</v>
       </c>
       <c r="F74" t="n">
-        <v>0.220214052033502</v>
+        <v>0.223350644031878</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.803819892682787</v>
+        <v>-0.982565710549165</v>
       </c>
       <c r="H74" t="n">
-        <v>0.421500999455401</v>
+        <v>0.325821227502111</v>
       </c>
     </row>
     <row r="75">
@@ -2437,16 +2404,16 @@
         <v>83</v>
       </c>
       <c r="E75" t="n">
-        <v>0.152228218419241</v>
+        <v>0.120330121080466</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0726189675501913</v>
+        <v>0.0727783426343069</v>
       </c>
       <c r="G75" t="n">
-        <v>2.09625974527973</v>
+        <v>1.65337814416983</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0360591555970327</v>
+        <v>0.0982539280899282</v>
       </c>
     </row>
     <row r="76">
@@ -2461,16 +2428,16 @@
         <v>84</v>
       </c>
       <c r="E76" t="n">
-        <v>0.856070784507812</v>
+        <v>0.769411432197309</v>
       </c>
       <c r="F76" t="n">
-        <v>0.273669590849616</v>
+        <v>0.270879019441887</v>
       </c>
       <c r="G76" t="n">
-        <v>3.12811804135824</v>
+        <v>2.84042460646302</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00175929510162247</v>
+        <v>0.00450535212872507</v>
       </c>
     </row>
     <row r="77">
@@ -2485,16 +2452,16 @@
         <v>85</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00791666659974643</v>
+        <v>-0.00635898195139458</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0635945907655993</v>
+        <v>0.0644121611608469</v>
       </c>
       <c r="G77" t="n">
-        <v>0.124486477614521</v>
+        <v>-0.0987233130637434</v>
       </c>
       <c r="H77" t="n">
-        <v>0.900930106396768</v>
+        <v>0.921357958137152</v>
       </c>
     </row>
     <row r="78">
@@ -2509,16 +2476,16 @@
         <v>86</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.186442277782698</v>
+        <v>-0.220292842169884</v>
       </c>
       <c r="F78" t="n">
-        <v>0.28660753519368</v>
+        <v>0.278244708117545</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.650514222023879</v>
+        <v>-0.791723385002602</v>
       </c>
       <c r="H78" t="n">
-        <v>0.515360118130418</v>
+        <v>0.428521983786817</v>
       </c>
     </row>
     <row r="79">
@@ -2533,16 +2500,16 @@
         <v>87</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0479275835070492</v>
+        <v>0.0727784012658602</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0684722645693733</v>
+        <v>0.0685470380712443</v>
       </c>
       <c r="G79" t="n">
-        <v>0.699956161936063</v>
+        <v>1.06172933672521</v>
       </c>
       <c r="H79" t="n">
-        <v>0.48395468208199</v>
+        <v>0.288358577188707</v>
       </c>
     </row>
     <row r="80">
@@ -2557,16 +2524,16 @@
         <v>88</v>
       </c>
       <c r="E80" t="n">
-        <v>0.661425438356052</v>
+        <v>0.609516304837646</v>
       </c>
       <c r="F80" t="n">
-        <v>0.27419286445584</v>
+        <v>0.271205448959503</v>
       </c>
       <c r="G80" t="n">
-        <v>2.41226349806261</v>
+        <v>2.24743384462257</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0158538192103429</v>
+        <v>0.0246123140669779</v>
       </c>
     </row>
     <row r="81">
@@ -2581,16 +2548,16 @@
         <v>89</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0208703317140504</v>
+        <v>-0.0159833944870081</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0531771221609982</v>
+        <v>0.053282640012634</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.392468243220528</v>
+        <v>-0.299973771630277</v>
       </c>
       <c r="H81" t="n">
-        <v>0.694712271259596</v>
+        <v>0.764197162062067</v>
       </c>
     </row>
     <row r="82">
@@ -2607,211 +2574,11 @@
         <v>92</v>
       </c>
       <c r="E82" t="n">
-        <v>0.118905616232327</v>
+        <v>0.124764479072756</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.0672246506714656</v>
-      </c>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.0672246506714656</v>
-      </c>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" t="s">
-        <v>96</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.0672246506714656</v>
-      </c>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D86" t="s">
-        <v>97</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.0672246506714656</v>
-      </c>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" t="s">
-        <v>93</v>
-      </c>
-      <c r="D87" t="s">
-        <v>98</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.118467474083154</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D88" t="s">
-        <v>99</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.0140345424156427</v>
-      </c>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.00166263678989407</v>
-      </c>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.118467474083154</v>
-      </c>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" t="s">
-        <v>102</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.0140345424156427</v>
-      </c>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.118467474083154</v>
-      </c>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_ind_effects_hab_season_np.xlsx
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.82958666343958</v>
+        <v>-1.82958666347032</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0353490412064622</v>
+        <v>0.0353490411956415</v>
       </c>
       <c r="G2" t="n">
-        <v>-51.757745075844</v>
+        <v>-51.7577450925574</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -684,16 +684,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14798259816539</v>
+        <v>0.147982598020133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.183539251720133</v>
+        <v>0.183539251764044</v>
       </c>
       <c r="G3" t="n">
-        <v>0.806272210322832</v>
+        <v>0.806272209338515</v>
       </c>
       <c r="H3" t="n">
-        <v>0.420085910295573</v>
+        <v>0.420085910863005</v>
       </c>
     </row>
     <row r="4">
@@ -708,16 +708,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0067473837056031</v>
+        <v>0.00674738366150259</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0428336452396018</v>
+        <v>0.0428336452405354</v>
       </c>
       <c r="G4" t="n">
-        <v>0.15752532075801</v>
+        <v>0.157525319725001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.874830853925021</v>
+        <v>0.87483085473908</v>
       </c>
     </row>
     <row r="5">
@@ -732,16 +732,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.779231371574032</v>
+        <v>0.779231371497043</v>
       </c>
       <c r="F5" t="n">
-        <v>0.253646555005227</v>
+        <v>0.253646555038963</v>
       </c>
       <c r="G5" t="n">
-        <v>3.07211494182514</v>
+        <v>3.07211494111301</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00212547863054266</v>
+        <v>0.00212547863561362</v>
       </c>
     </row>
     <row r="6">
@@ -756,16 +756,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0508398507941526</v>
+        <v>0.050839850772402</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0377311858641215</v>
+        <v>0.0377311858636633</v>
       </c>
       <c r="G6" t="n">
-        <v>1.34742255324914</v>
+        <v>1.34742255268904</v>
       </c>
       <c r="H6" t="n">
-        <v>0.17784418097455</v>
+        <v>0.177844181154837</v>
       </c>
     </row>
     <row r="7">
@@ -780,16 +780,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0494435007468305</v>
+        <v>-0.0494435007753407</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0253107681958522</v>
+        <v>0.025310768195258</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.95345713588152</v>
+        <v>-1.95345713705379</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0507654516641872</v>
+        <v>0.0507654515254051</v>
       </c>
     </row>
     <row r="8">
@@ -804,16 +804,16 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0269324699716841</v>
+        <v>0.026932469991786</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0368377989573956</v>
+        <v>0.036837798955139</v>
       </c>
       <c r="G8" t="n">
-        <v>0.731109641019339</v>
+        <v>0.731109641609812</v>
       </c>
       <c r="H8" t="n">
-        <v>0.464712185958739</v>
+        <v>0.464712185598102</v>
       </c>
     </row>
     <row r="9">
@@ -828,16 +828,16 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0586438786983845</v>
+        <v>0.0586438786843842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0359479763407847</v>
+        <v>0.0359479763400037</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6313541030083</v>
+        <v>1.63135410265428</v>
       </c>
       <c r="H9" t="n">
-        <v>0.102815623459227</v>
+        <v>0.102815623533884</v>
       </c>
     </row>
     <row r="10">
@@ -852,16 +852,16 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0150875548001833</v>
+        <v>0.0150875547774158</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0226845311240007</v>
+        <v>0.0226845311232406</v>
       </c>
       <c r="G10" t="n">
-        <v>0.665103224647229</v>
+        <v>0.665103223665857</v>
       </c>
       <c r="H10" t="n">
-        <v>0.505984472299242</v>
+        <v>0.50598447292689</v>
       </c>
     </row>
     <row r="11">
@@ -876,16 +876,16 @@
         <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0847802479361467</v>
+        <v>0.0847802478842559</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0304301698699011</v>
+        <v>0.0304301698701904</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78605897694984</v>
+        <v>2.78605897521812</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00533531636155563</v>
+        <v>0.00533531639005892</v>
       </c>
     </row>
     <row r="12">
@@ -900,16 +900,16 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.125923262455898</v>
+        <v>-0.125923262477218</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0223826877129023</v>
+        <v>0.0223826877121292</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.62592232314041</v>
+        <v>-5.62592232428724</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0000000184519370160125</v>
+        <v>0.0000000184519368934059</v>
       </c>
     </row>
     <row r="13">
@@ -924,16 +924,16 @@
         <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0956058409343752</v>
+        <v>0.0956058410977353</v>
       </c>
       <c r="F13" t="n">
-        <v>0.212600768530514</v>
+        <v>0.212600768567266</v>
       </c>
       <c r="G13" t="n">
-        <v>0.449696591386749</v>
+        <v>0.4496965920774</v>
       </c>
       <c r="H13" t="n">
-        <v>0.652929229479633</v>
+        <v>0.652929228981568</v>
       </c>
     </row>
     <row r="14">
@@ -948,16 +948,16 @@
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0497018743278259</v>
+        <v>-0.0497018742606232</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0538796150737326</v>
+        <v>0.0538796150740499</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.922461570295379</v>
+        <v>-0.922461569042672</v>
       </c>
       <c r="H14" t="n">
-        <v>0.356287866793132</v>
+        <v>0.35628786744628</v>
       </c>
     </row>
     <row r="15">
@@ -972,16 +972,16 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.604206199242694</v>
+        <v>-0.604206199159786</v>
       </c>
       <c r="F15" t="n">
-        <v>0.260364650911112</v>
+        <v>0.260364650944108</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.32061532596055</v>
+        <v>-2.32061532534802</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0203076142919525</v>
+        <v>0.0203076143250406</v>
       </c>
     </row>
     <row r="16">
@@ -996,16 +996,16 @@
         <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0740840800291394</v>
+        <v>-0.0740840800080189</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0467034208288452</v>
+        <v>0.046703420828671</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.58626667414013</v>
+        <v>-1.58626667369383</v>
       </c>
       <c r="H16" t="n">
-        <v>0.112678828718007</v>
+        <v>0.112678828819207</v>
       </c>
     </row>
     <row r="17">
@@ -1020,16 +1020,16 @@
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.293396047693272</v>
+        <v>0.293396047792082</v>
       </c>
       <c r="F17" t="n">
-        <v>0.204634407013718</v>
+        <v>0.204634407053082</v>
       </c>
       <c r="G17" t="n">
-        <v>1.43375716711024</v>
+        <v>1.4337571673173</v>
       </c>
       <c r="H17" t="n">
-        <v>0.151641572092534</v>
+        <v>0.151641572033423</v>
       </c>
     </row>
     <row r="18">
@@ -1044,16 +1044,16 @@
         <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0598900035319574</v>
+        <v>-0.059890003529488</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0685959376523756</v>
+        <v>0.0685959376520156</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.873083823643649</v>
+        <v>-0.873083823612231</v>
       </c>
       <c r="H18" t="n">
-        <v>0.382617390314797</v>
+        <v>0.382617390331921</v>
       </c>
     </row>
     <row r="19">
@@ -1068,16 +1068,16 @@
         <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.992759898467075</v>
+        <v>-0.992759898441196</v>
       </c>
       <c r="F19" t="n">
-        <v>0.258839353002161</v>
+        <v>0.258839353035139</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.83542875900631</v>
+        <v>-3.83542875841766</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000125345436177656</v>
+        <v>0.000125345436477879</v>
       </c>
     </row>
     <row r="20">
@@ -1092,16 +1092,16 @@
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>0.163739470069911</v>
+        <v>0.163739470032566</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0609245637196636</v>
+        <v>0.0609245637190802</v>
       </c>
       <c r="G20" t="n">
-        <v>2.68757722785406</v>
+        <v>2.68757722726682</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00719724570856946</v>
+        <v>0.00719724572122508</v>
       </c>
     </row>
     <row r="21">
@@ -1116,16 +1116,16 @@
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>0.360790124788675</v>
+        <v>0.360790125160753</v>
       </c>
       <c r="F21" t="n">
-        <v>0.262839052748353</v>
+        <v>0.262839052709702</v>
       </c>
       <c r="G21" t="n">
-        <v>1.37266559522303</v>
+        <v>1.3726655968405</v>
       </c>
       <c r="H21" t="n">
-        <v>0.169856329538468</v>
+        <v>0.169856329035402</v>
       </c>
     </row>
     <row r="22">
@@ -1140,16 +1140,16 @@
         <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0379485384244285</v>
+        <v>0.0379485384506669</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0648262248578347</v>
+        <v>0.064826224858769</v>
       </c>
       <c r="G22" t="n">
-        <v>0.585388683478801</v>
+        <v>0.585388683875113</v>
       </c>
       <c r="H22" t="n">
-        <v>0.558286396226256</v>
+        <v>0.558286395959836</v>
       </c>
     </row>
     <row r="23">
@@ -1164,16 +1164,16 @@
         <v>31</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.743704820553769</v>
+        <v>-0.743704820482965</v>
       </c>
       <c r="F23" t="n">
-        <v>0.258975661148473</v>
+        <v>0.258975661181436</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.87171704574739</v>
+        <v>-2.87171704510846</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00408248325473775</v>
+        <v>0.00408248326299103</v>
       </c>
     </row>
     <row r="24">
@@ -1188,16 +1188,16 @@
         <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00960905261866274</v>
+        <v>0.00960905263425805</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0507156723518069</v>
+        <v>0.0507156723512369</v>
       </c>
       <c r="G24" t="n">
-        <v>0.18946909649558</v>
+        <v>0.189469096805215</v>
       </c>
       <c r="H24" t="n">
-        <v>0.849725173820309</v>
+        <v>0.849725173577651</v>
       </c>
     </row>
     <row r="25">
@@ -1212,16 +1212,16 @@
         <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>0.122598454081093</v>
+        <v>0.122598453984975</v>
       </c>
       <c r="F25" t="n">
-        <v>0.23319012805072</v>
+        <v>0.233190128129674</v>
       </c>
       <c r="G25" t="n">
-        <v>0.525744614945394</v>
+        <v>0.525744614355199</v>
       </c>
       <c r="H25" t="n">
-        <v>0.599065660762274</v>
+        <v>0.599065661172397</v>
       </c>
     </row>
     <row r="26">
@@ -1236,16 +1236,16 @@
         <v>34</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0305889369287724</v>
+        <v>-0.0305889368827558</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0454605962217586</v>
+        <v>0.0454605962226396</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.672867042472525</v>
+        <v>-0.672867041447257</v>
       </c>
       <c r="H26" t="n">
-        <v>0.501031881138791</v>
+        <v>0.501031881791116</v>
       </c>
     </row>
     <row r="27">
@@ -1260,16 +1260,16 @@
         <v>35</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.570964856066883</v>
+        <v>-0.570964855983913</v>
       </c>
       <c r="F27" t="n">
-        <v>0.26298674926175</v>
+        <v>0.262986749294193</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.17107841999523</v>
+        <v>-2.17107841941191</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0299252449996165</v>
+        <v>0.0299252450437034</v>
       </c>
     </row>
     <row r="28">
@@ -1284,16 +1284,16 @@
         <v>36</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0562253022150751</v>
+        <v>-0.0562253021919784</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0402823342284009</v>
+        <v>0.0402823342279577</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.39578063913272</v>
+        <v>-1.3957806385747</v>
       </c>
       <c r="H28" t="n">
-        <v>0.162780562317953</v>
+        <v>0.162780562486042</v>
       </c>
     </row>
     <row r="29">
@@ -1308,16 +1308,16 @@
         <v>37</v>
       </c>
       <c r="E29" t="n">
-        <v>0.28176112443158</v>
+        <v>0.281761124101047</v>
       </c>
       <c r="F29" t="n">
-        <v>0.207918650852596</v>
+        <v>0.207918650771571</v>
       </c>
       <c r="G29" t="n">
-        <v>1.35515079227469</v>
+        <v>1.35515079121307</v>
       </c>
       <c r="H29" t="n">
-        <v>0.175369518796247</v>
+        <v>0.175369519134416</v>
       </c>
     </row>
     <row r="30">
@@ -1332,16 +1332,16 @@
         <v>38</v>
       </c>
       <c r="E30" t="n">
-        <v>0.139418126739049</v>
+        <v>0.139418126831761</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0604692439065695</v>
+        <v>0.0604692439068559</v>
       </c>
       <c r="G30" t="n">
-        <v>2.30560393568774</v>
+        <v>2.30560393721004</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0211327731768321</v>
+        <v>0.0211327730916938</v>
       </c>
     </row>
     <row r="31">
@@ -1356,16 +1356,16 @@
         <v>39</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.651795641241281</v>
+        <v>-0.651795641374819</v>
       </c>
       <c r="F31" t="n">
-        <v>0.296769383305434</v>
+        <v>0.296769383370118</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.19630352019991</v>
+        <v>-2.19630352017117</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0280702259461882</v>
+        <v>0.0280702259482435</v>
       </c>
     </row>
     <row r="32">
@@ -1380,16 +1380,16 @@
         <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0594297148253702</v>
+        <v>0.0594297148839445</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0538840639267048</v>
+        <v>0.0538840639266314</v>
       </c>
       <c r="G32" t="n">
-        <v>1.1029182005687</v>
+        <v>1.10291820165725</v>
       </c>
       <c r="H32" t="n">
-        <v>0.270062689544172</v>
+        <v>0.27006268907141</v>
       </c>
     </row>
     <row r="33">
@@ -1404,16 +1404,16 @@
         <v>41</v>
       </c>
       <c r="E33" t="n">
-        <v>0.049648714065357</v>
+        <v>0.0496487142654897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.201732150077356</v>
+        <v>0.201732150113699</v>
       </c>
       <c r="G33" t="n">
-        <v>0.246112055249095</v>
+        <v>0.246112056196829</v>
       </c>
       <c r="H33" t="n">
-        <v>0.805595491307287</v>
+        <v>0.805595490573663</v>
       </c>
     </row>
     <row r="34">
@@ -1428,16 +1428,16 @@
         <v>42</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0821391071271029</v>
+        <v>-0.0821391070890428</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0451990432110139</v>
+        <v>0.0451990432119422</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.81727535124212</v>
+        <v>-1.81727535036274</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0691749622147985</v>
+        <v>0.0691749623493814</v>
       </c>
     </row>
     <row r="35">
@@ -1452,16 +1452,16 @@
         <v>43</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.709855134600413</v>
+        <v>-0.709855134762758</v>
       </c>
       <c r="F35" t="n">
-        <v>0.265241516797662</v>
+        <v>0.26524151683928</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.67625952064632</v>
+        <v>-2.67625952083846</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00744489718049898</v>
+        <v>0.00744489717623052</v>
       </c>
     </row>
     <row r="36">
@@ -1476,16 +1476,16 @@
         <v>44</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0107235187642509</v>
+        <v>-0.010723518742339</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0394225543576618</v>
+        <v>0.0394225543572183</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.272014813321368</v>
+        <v>-0.272014812768609</v>
       </c>
       <c r="H36" t="n">
-        <v>0.785610629279791</v>
+        <v>0.78561062970481</v>
       </c>
     </row>
     <row r="37">
@@ -1500,16 +1500,16 @@
         <v>45</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0375357041319093</v>
+        <v>-0.0375357041022094</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0267690236048724</v>
+        <v>0.0267690236043128</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.40220669554332</v>
+        <v>-1.40220669446315</v>
       </c>
       <c r="H37" t="n">
-        <v>0.160853532828149</v>
+        <v>0.160853533150613</v>
       </c>
     </row>
     <row r="38">
@@ -1524,16 +1524,16 @@
         <v>46</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0395268760045194</v>
+        <v>-0.0395268760222727</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0384842876920758</v>
+        <v>0.0384842876899134</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.02709127217803</v>
+        <v>-1.02709127269705</v>
       </c>
       <c r="H38" t="n">
-        <v>0.304377488019071</v>
+        <v>0.304377487774697</v>
       </c>
     </row>
     <row r="39">
@@ -1548,16 +1548,16 @@
         <v>47</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0392668657785028</v>
+        <v>0.0392668657934533</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0384841667654011</v>
+        <v>0.0384841667646901</v>
       </c>
       <c r="G39" t="n">
-        <v>1.02033820864235</v>
+        <v>1.02033820904969</v>
       </c>
       <c r="H39" t="n">
-        <v>0.307568088261091</v>
+        <v>0.307568088067973</v>
       </c>
     </row>
     <row r="40">
@@ -1572,16 +1572,16 @@
         <v>48</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00710979050275774</v>
+        <v>0.00710979056347405</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0352615275933371</v>
+        <v>0.0352615275936394</v>
       </c>
       <c r="G40" t="n">
-        <v>0.201630246560877</v>
+        <v>0.201630248281035</v>
       </c>
       <c r="H40" t="n">
-        <v>0.840205797504941</v>
+        <v>0.840205796160071</v>
       </c>
     </row>
     <row r="41">
@@ -1596,16 +1596,16 @@
         <v>49</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0374210608849947</v>
+        <v>-0.0374210608629393</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0515041723196673</v>
+        <v>0.0515041723182301</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.726563678234378</v>
+        <v>-0.726563677826428</v>
       </c>
       <c r="H41" t="n">
-        <v>0.467493285434933</v>
+        <v>0.467493285684919</v>
       </c>
     </row>
     <row r="42">
@@ -1620,16 +1620,16 @@
         <v>50</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.071288533576721</v>
+        <v>-0.0712885335123869</v>
       </c>
       <c r="F42" t="n">
-        <v>0.053754390372714</v>
+        <v>0.0537543903719395</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.3261899741106</v>
+        <v>-1.3261899729329</v>
       </c>
       <c r="H42" t="n">
-        <v>0.184776779368423</v>
+        <v>0.184776779758423</v>
       </c>
     </row>
     <row r="43">
@@ -1644,16 +1644,16 @@
         <v>51</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.00116699013670652</v>
+        <v>-0.00116699010846939</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0264734850079641</v>
+        <v>0.0264734850074</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.0440814700578884</v>
+        <v>-0.0440814689922083</v>
       </c>
       <c r="H43" t="n">
-        <v>0.964839463177149</v>
+        <v>0.964839464026613</v>
       </c>
     </row>
     <row r="44">
@@ -1668,16 +1668,16 @@
         <v>52</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0751498219962275</v>
+        <v>0.0751498219663217</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0389182528739148</v>
+        <v>0.0389182528718316</v>
       </c>
       <c r="G44" t="n">
-        <v>1.93096597218004</v>
+        <v>1.93096597151497</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0534872606353803</v>
+        <v>0.0534872607176317</v>
       </c>
     </row>
     <row r="45">
@@ -1692,16 +1692,16 @@
         <v>53</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.00242770444859141</v>
+        <v>-0.00242770443609245</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0377728865855847</v>
+        <v>0.0377728865848517</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.0642710861689318</v>
+        <v>-0.0642710858392817</v>
       </c>
       <c r="H45" t="n">
-        <v>0.948754375735482</v>
+        <v>0.948754375997962</v>
       </c>
     </row>
     <row r="46">
@@ -1716,16 +1716,16 @@
         <v>54</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.247554537569493</v>
+        <v>-0.247554537492365</v>
       </c>
       <c r="F46" t="n">
-        <v>0.262797700684978</v>
+        <v>0.262797700754082</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.941996588722984</v>
+        <v>-0.941996588181791</v>
       </c>
       <c r="H46" t="n">
-        <v>0.346194386412606</v>
+        <v>0.346194386689685</v>
       </c>
     </row>
     <row r="47">
@@ -1740,16 +1740,16 @@
         <v>55</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0632363052756441</v>
+        <v>0.0632363052061272</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0569360629680677</v>
+        <v>0.0569360629683742</v>
       </c>
       <c r="G47" t="n">
-        <v>1.11065468841971</v>
+        <v>1.11065468719277</v>
       </c>
       <c r="H47" t="n">
-        <v>0.266717013061332</v>
+        <v>0.266717013589658</v>
       </c>
     </row>
     <row r="48">
@@ -1764,16 +1764,16 @@
         <v>56</v>
       </c>
       <c r="E48" t="n">
-        <v>0.526569803522911</v>
+        <v>0.526569803435196</v>
       </c>
       <c r="F48" t="n">
-        <v>0.270175236054214</v>
+        <v>0.270175236085905</v>
       </c>
       <c r="G48" t="n">
-        <v>1.94899359102345</v>
+        <v>1.94899359047018</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0512961900983394</v>
+        <v>0.051296190164413</v>
       </c>
     </row>
     <row r="49">
@@ -1788,16 +1788,16 @@
         <v>57</v>
       </c>
       <c r="E49" t="n">
-        <v>0.061050648551132</v>
+        <v>0.0610506485281149</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0496247501161957</v>
+        <v>0.049624750116026</v>
       </c>
       <c r="G49" t="n">
-        <v>1.23024596412441</v>
+        <v>1.23024596366479</v>
       </c>
       <c r="H49" t="n">
-        <v>0.218605012392274</v>
+        <v>0.218605012564334</v>
       </c>
     </row>
     <row r="50">
@@ -1812,16 +1812,16 @@
         <v>58</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.357772551510803</v>
+        <v>-0.357772551355945</v>
       </c>
       <c r="F50" t="n">
-        <v>0.252519754763098</v>
+        <v>0.252519754835876</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.41681014955225</v>
+        <v>-1.41681014853067</v>
       </c>
       <c r="H50" t="n">
-        <v>0.156538441476267</v>
+        <v>0.156538441775028</v>
       </c>
     </row>
     <row r="51">
@@ -1836,16 +1836,16 @@
         <v>59</v>
       </c>
       <c r="E51" t="n">
-        <v>0.126941646339557</v>
+        <v>0.126941646333792</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0723176057460313</v>
+        <v>0.0723176057456856</v>
       </c>
       <c r="G51" t="n">
-        <v>1.75533530224102</v>
+        <v>1.7553353021697</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0792019714397</v>
+        <v>0.0792019714518929</v>
       </c>
     </row>
     <row r="52">
@@ -1860,16 +1860,16 @@
         <v>60</v>
       </c>
       <c r="E52" t="n">
-        <v>0.667666066568406</v>
+        <v>0.667666066541717</v>
       </c>
       <c r="F52" t="n">
-        <v>0.268431257417184</v>
+        <v>0.268431257448889</v>
       </c>
       <c r="G52" t="n">
-        <v>2.48728882393434</v>
+        <v>2.48728882354115</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0128720848823632</v>
+        <v>0.0128720848965913</v>
       </c>
     </row>
     <row r="53">
@@ -1884,16 +1884,16 @@
         <v>61</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0248552714642866</v>
+        <v>-0.0248552714306539</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0642012194884891</v>
+        <v>0.0642012194879315</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.387146407222732</v>
+        <v>-0.38714640670223</v>
       </c>
       <c r="H53" t="n">
-        <v>0.698647823164355</v>
+        <v>0.69864782354967</v>
       </c>
     </row>
     <row r="54">
@@ -1908,16 +1908,16 @@
         <v>62</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0616560267215445</v>
+        <v>-0.0616560269028153</v>
       </c>
       <c r="F54" t="n">
-        <v>0.317845368590554</v>
+        <v>0.317845368595287</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.193981202227204</v>
+        <v>-0.193981202794627</v>
       </c>
       <c r="H54" t="n">
-        <v>0.846190600780834</v>
+        <v>0.846190600336535</v>
       </c>
     </row>
     <row r="55">
@@ -1932,16 +1932,16 @@
         <v>63</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0206409886168359</v>
+        <v>-0.020640988639044</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0691285490432694</v>
+        <v>0.0691285490441423</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.298588483376328</v>
+        <v>-0.298588483693816</v>
       </c>
       <c r="H55" t="n">
-        <v>0.765254053740559</v>
+        <v>0.765254053498284</v>
       </c>
     </row>
     <row r="56">
@@ -1956,16 +1956,16 @@
         <v>64</v>
       </c>
       <c r="E56" t="n">
-        <v>0.348238525950435</v>
+        <v>0.348238525876024</v>
       </c>
       <c r="F56" t="n">
-        <v>0.268732084618706</v>
+        <v>0.268732084650322</v>
       </c>
       <c r="G56" t="n">
-        <v>1.29585764366223</v>
+        <v>1.29585764323288</v>
       </c>
       <c r="H56" t="n">
-        <v>0.195024534205964</v>
+        <v>0.195024534353912</v>
       </c>
     </row>
     <row r="57">
@@ -1980,16 +1980,16 @@
         <v>65</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0647317093407376</v>
+        <v>-0.0647317093565017</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0542524182998294</v>
+        <v>0.0542524182992925</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.19315804473441</v>
+        <v>-1.19315804503678</v>
       </c>
       <c r="H57" t="n">
-        <v>0.232807482468774</v>
+        <v>0.232807482350373</v>
       </c>
     </row>
     <row r="58">
@@ -2004,16 +2004,16 @@
         <v>66</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.483774404894997</v>
+        <v>-0.483774404565516</v>
       </c>
       <c r="F58" t="n">
-        <v>0.272757696321465</v>
+        <v>0.272757696256207</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.77364162925336</v>
+        <v>-1.77364162846975</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0761224471837897</v>
+        <v>0.0761224473134887</v>
       </c>
     </row>
     <row r="59">
@@ -2028,16 +2028,16 @@
         <v>67</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0392637327469828</v>
+        <v>0.0392637326282027</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0736205244449498</v>
+        <v>0.0736205244448899</v>
       </c>
       <c r="G59" t="n">
-        <v>0.533325903924286</v>
+        <v>0.533325902311309</v>
       </c>
       <c r="H59" t="n">
-        <v>0.593807999169739</v>
+        <v>0.593808000286098</v>
       </c>
     </row>
     <row r="60">
@@ -2052,16 +2052,16 @@
         <v>68</v>
       </c>
       <c r="E60" t="n">
-        <v>0.530403921627516</v>
+        <v>0.530403921768271</v>
       </c>
       <c r="F60" t="n">
-        <v>0.310010041631902</v>
+        <v>0.310010041693665</v>
       </c>
       <c r="G60" t="n">
-        <v>1.71092497144755</v>
+        <v>1.71092497156072</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08709496415456</v>
+        <v>0.087094964133666</v>
       </c>
     </row>
     <row r="61">
@@ -2076,16 +2076,16 @@
         <v>69</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0731112200284432</v>
+        <v>-0.0731112200907112</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0649710207061998</v>
+        <v>0.0649710207062996</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.12528969429391</v>
+        <v>-1.12528969525058</v>
       </c>
       <c r="H61" t="n">
-        <v>0.260466295366509</v>
+        <v>0.26046629496125</v>
       </c>
     </row>
     <row r="62">
@@ -2100,16 +2100,16 @@
         <v>70</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.160471669949967</v>
+        <v>-0.160471669583242</v>
       </c>
       <c r="F62" t="n">
-        <v>0.238126173759586</v>
+        <v>0.238126173688694</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.673893454954602</v>
+        <v>-0.67389345361518</v>
       </c>
       <c r="H62" t="n">
-        <v>0.500379053515439</v>
+        <v>0.500379054367055</v>
       </c>
     </row>
     <row r="63">
@@ -2124,16 +2124,16 @@
         <v>71</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0188907200759408</v>
+        <v>0.0188907200095214</v>
       </c>
       <c r="F63" t="n">
-        <v>0.096212711546928</v>
+        <v>0.0962127115463827</v>
       </c>
       <c r="G63" t="n">
-        <v>0.196343287411943</v>
+        <v>0.196343286722716</v>
       </c>
       <c r="H63" t="n">
-        <v>0.844341482252037</v>
+        <v>0.844341482791462</v>
       </c>
     </row>
     <row r="64">
@@ -2148,16 +2148,16 @@
         <v>72</v>
       </c>
       <c r="E64" t="n">
-        <v>0.721270439114486</v>
+        <v>0.721270439300377</v>
       </c>
       <c r="F64" t="n">
-        <v>0.305786034222764</v>
+        <v>0.305786034285392</v>
       </c>
       <c r="G64" t="n">
-        <v>2.3587422523981</v>
+        <v>2.35874225252292</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0183369869328401</v>
+        <v>0.0183369869266729</v>
       </c>
     </row>
     <row r="65">
@@ -2172,16 +2172,16 @@
         <v>73</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.0785310103475873</v>
+        <v>-0.0785310103685321</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0868992853624229</v>
+        <v>0.086899285362331</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.903701451859646</v>
+        <v>-0.903701452101626</v>
       </c>
       <c r="H65" t="n">
-        <v>0.366153729063557</v>
+        <v>0.366153728935212</v>
       </c>
     </row>
     <row r="66">
@@ -2212,16 +2212,16 @@
         <v>75</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0202637683506314</v>
+        <v>0.0202637682273583</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0949062848033139</v>
+        <v>0.094906284804517</v>
       </c>
       <c r="G67" t="n">
-        <v>0.21351345058577</v>
+        <v>0.21351344928417</v>
       </c>
       <c r="H67" t="n">
-        <v>0.830926498946361</v>
+        <v>0.830926499961483</v>
       </c>
     </row>
     <row r="68">
@@ -2236,16 +2236,16 @@
         <v>76</v>
       </c>
       <c r="E68" t="n">
-        <v>0.757661746231008</v>
+        <v>0.757661746345558</v>
       </c>
       <c r="F68" t="n">
-        <v>0.306862062141944</v>
+        <v>0.306862062204384</v>
       </c>
       <c r="G68" t="n">
-        <v>2.46906294294711</v>
+        <v>2.46906294281801</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0135467388013958</v>
+        <v>0.0135467388062834</v>
       </c>
     </row>
     <row r="69">
@@ -2260,16 +2260,16 @@
         <v>77</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.122963629728301</v>
+        <v>-0.122963629809744</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0749151475177226</v>
+        <v>0.0749151475170809</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.64137205628823</v>
+        <v>-1.64137205738943</v>
       </c>
       <c r="H69" t="n">
-        <v>0.100720206813449</v>
+        <v>0.100720206585001</v>
       </c>
     </row>
     <row r="70">
@@ -2284,16 +2284,16 @@
         <v>78</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.153425861498418</v>
+        <v>-0.153425861721141</v>
       </c>
       <c r="F70" t="n">
-        <v>0.231377140886128</v>
+        <v>0.231377140916858</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.663098614283277</v>
+        <v>-0.663098615157805</v>
       </c>
       <c r="H70" t="n">
-        <v>0.507267398095482</v>
+        <v>0.507267397535422</v>
       </c>
     </row>
     <row r="71">
@@ -2308,16 +2308,16 @@
         <v>79</v>
       </c>
       <c r="E71" t="n">
-        <v>0.104888209359142</v>
+        <v>0.104888209299316</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0567515020447037</v>
+        <v>0.0567515020450402</v>
       </c>
       <c r="G71" t="n">
-        <v>1.84820146745226</v>
+        <v>1.84820146638713</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0645732032267465</v>
+        <v>0.0645732033807751</v>
       </c>
     </row>
     <row r="72">
@@ -2332,16 +2332,16 @@
         <v>80</v>
       </c>
       <c r="E72" t="n">
-        <v>0.624230513373624</v>
+        <v>0.624230513527855</v>
       </c>
       <c r="F72" t="n">
-        <v>0.272423763993816</v>
+        <v>0.272423764034471</v>
       </c>
       <c r="G72" t="n">
-        <v>2.29139523007175</v>
+        <v>2.29139523029594</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0219405652070481</v>
+        <v>0.0219405651940934</v>
       </c>
     </row>
     <row r="73">
@@ -2356,16 +2356,16 @@
         <v>81</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0419978868193393</v>
+        <v>0.0419978867983179</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0487924341680854</v>
+        <v>0.0487924341679123</v>
       </c>
       <c r="G73" t="n">
-        <v>0.860745882746092</v>
+        <v>0.860745882318313</v>
       </c>
       <c r="H73" t="n">
-        <v>0.389378016593876</v>
+        <v>0.389378016829532</v>
       </c>
     </row>
     <row r="74">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.219456684254795</v>
+        <v>-0.219456684403633</v>
       </c>
       <c r="F74" t="n">
-        <v>0.223350644031878</v>
+        <v>0.22335064406478</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.982565710549165</v>
+        <v>-0.982565711070809</v>
       </c>
       <c r="H74" t="n">
-        <v>0.325821227502111</v>
+        <v>0.325821227245265</v>
       </c>
     </row>
     <row r="75">
@@ -2404,16 +2404,16 @@
         <v>83</v>
       </c>
       <c r="E75" t="n">
-        <v>0.120330121080466</v>
+        <v>0.120330121092421</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0727783426343069</v>
+        <v>0.0727783426340338</v>
       </c>
       <c r="G75" t="n">
-        <v>1.65337814416983</v>
+        <v>1.65337814434029</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0982539280899282</v>
+        <v>0.0982539280552583</v>
       </c>
     </row>
     <row r="76">
@@ -2428,16 +2428,16 @@
         <v>84</v>
       </c>
       <c r="E76" t="n">
-        <v>0.769411432197309</v>
+        <v>0.769411432434305</v>
       </c>
       <c r="F76" t="n">
-        <v>0.270879019441887</v>
+        <v>0.270879019482576</v>
       </c>
       <c r="G76" t="n">
-        <v>2.84042460646302</v>
+        <v>2.84042460691126</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00450535212872507</v>
+        <v>0.00450535212239353</v>
       </c>
     </row>
     <row r="77">
@@ -2452,16 +2452,16 @@
         <v>85</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.00635898195139458</v>
+        <v>-0.00635898190433183</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0644121611608469</v>
+        <v>0.0644121611603146</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.0987233130637434</v>
+        <v>-0.0987233123339092</v>
       </c>
       <c r="H77" t="n">
-        <v>0.921357958137152</v>
+        <v>0.921357958716644</v>
       </c>
     </row>
     <row r="78">
@@ -2476,16 +2476,16 @@
         <v>86</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.220292842169884</v>
+        <v>-0.220292842593089</v>
       </c>
       <c r="F78" t="n">
-        <v>0.278244708117545</v>
+        <v>0.278244708078394</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.791723385002602</v>
+        <v>-0.791723386634988</v>
       </c>
       <c r="H78" t="n">
-        <v>0.428521983786817</v>
+        <v>0.42852198283479</v>
       </c>
     </row>
     <row r="79">
@@ -2500,16 +2500,16 @@
         <v>87</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0727784012658602</v>
+        <v>0.0727784012484059</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0685470380712443</v>
+        <v>0.0685470380721437</v>
       </c>
       <c r="G79" t="n">
-        <v>1.06172933672521</v>
+        <v>1.06172933645665</v>
       </c>
       <c r="H79" t="n">
-        <v>0.288358577188707</v>
+        <v>0.288358577310663</v>
       </c>
     </row>
     <row r="80">
@@ -2524,16 +2524,16 @@
         <v>88</v>
       </c>
       <c r="E80" t="n">
-        <v>0.609516304837646</v>
+        <v>0.609516305021543</v>
       </c>
       <c r="F80" t="n">
-        <v>0.271205448959503</v>
+        <v>0.271205449000078</v>
       </c>
       <c r="G80" t="n">
-        <v>2.24743384462257</v>
+        <v>2.2474338449644</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0246123140669779</v>
+        <v>0.0246123140451533</v>
       </c>
     </row>
     <row r="81">
@@ -2548,16 +2548,16 @@
         <v>89</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0159833944870081</v>
+        <v>-0.0159833945018379</v>
       </c>
       <c r="F81" t="n">
-        <v>0.053282640012634</v>
+        <v>0.0532826400120944</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.299973771630277</v>
+        <v>-0.299973771911637</v>
       </c>
       <c r="H81" t="n">
-        <v>0.764197162062067</v>
+        <v>0.76419716184745</v>
       </c>
     </row>
     <row r="82">
@@ -2574,7 +2574,7 @@
         <v>92</v>
       </c>
       <c r="E82" t="n">
-        <v>0.124764479072756</v>
+        <v>0.124764479015814</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
